--- a/psu_intuss.xlsx
+++ b/psu_intuss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/surasaksangkhathat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90846DD-7B4B-CE47-844F-ADFE62D56884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391318A5-07A0-2246-AADF-EFC777B96338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="3200" windowWidth="27640" windowHeight="16940" xr2:uid="{F3545D01-67CD-A840-8423-6C81C3C588E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -490,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08EDD56-8B80-8C41-9AC9-032B28FA51E2}">
   <dimension ref="A1:AH152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,8 +620,8 @@
       <c r="C2" s="1">
         <v>241252</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>34</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -719,8 +725,8 @@
       <c r="C3" s="1">
         <v>241227</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>35</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -824,8 +830,8 @@
       <c r="C4" s="1">
         <v>241337</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>35</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -929,8 +935,8 @@
       <c r="C5" s="1">
         <v>237615</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>35</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -998,8 +1004,8 @@
       <c r="C6" s="1">
         <v>240924</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>35</v>
       </c>
       <c r="E6">
         <v>24</v>
@@ -1067,8 +1073,8 @@
       <c r="C7" s="1">
         <v>240896</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>35</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -1136,8 +1142,8 @@
       <c r="C8" s="1">
         <v>241162</v>
       </c>
-      <c r="D8">
-        <v>2</v>
+      <c r="D8" t="s">
+        <v>34</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1205,8 +1211,8 @@
       <c r="C9" s="1">
         <v>240843</v>
       </c>
-      <c r="D9">
-        <v>2</v>
+      <c r="D9" t="s">
+        <v>34</v>
       </c>
       <c r="E9">
         <v>28</v>
@@ -1274,14 +1280,14 @@
       <c r="C10" s="1">
         <v>240814</v>
       </c>
-      <c r="D10">
-        <v>2</v>
+      <c r="D10" t="s">
+        <v>34</v>
       </c>
       <c r="E10">
         <v>22</v>
       </c>
       <c r="F10">
-        <v>10.8</v>
+        <v>108</v>
       </c>
       <c r="G10">
         <v>52</v>
@@ -1343,8 +1349,8 @@
       <c r="C11" s="1">
         <v>237659</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>35</v>
       </c>
       <c r="E11">
         <v>19</v>
@@ -1442,8 +1448,8 @@
       <c r="C12" s="1">
         <v>237803</v>
       </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>35</v>
       </c>
       <c r="E12">
         <v>22</v>
@@ -1547,8 +1553,8 @@
       <c r="C13" s="1">
         <v>237811</v>
       </c>
-      <c r="D13">
-        <v>2</v>
+      <c r="D13" t="s">
+        <v>34</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -1634,8 +1640,8 @@
       <c r="C14" s="1">
         <v>240763</v>
       </c>
-      <c r="D14">
-        <v>2</v>
+      <c r="D14" t="s">
+        <v>34</v>
       </c>
       <c r="E14">
         <v>24</v>
@@ -1739,8 +1745,8 @@
       <c r="C15" s="1">
         <v>237616</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>35</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1844,8 +1850,8 @@
       <c r="C16" s="1">
         <v>235429</v>
       </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>35</v>
       </c>
       <c r="E16">
         <v>19</v>
@@ -1949,8 +1955,8 @@
       <c r="C17" s="1">
         <v>241066</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" t="s">
+        <v>35</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -2048,8 +2054,8 @@
       <c r="C18" s="1">
         <v>240877</v>
       </c>
-      <c r="D18">
-        <v>2</v>
+      <c r="D18" t="s">
+        <v>34</v>
       </c>
       <c r="E18">
         <v>26</v>
@@ -2147,8 +2153,8 @@
       <c r="C19" s="1">
         <v>240663</v>
       </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>35</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -2252,8 +2258,8 @@
       <c r="C20" s="1">
         <v>237816</v>
       </c>
-      <c r="D20">
-        <v>2</v>
+      <c r="D20" t="s">
+        <v>34</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -2339,8 +2345,8 @@
       <c r="C21" s="1">
         <v>240426</v>
       </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="D21" t="s">
+        <v>35</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -2444,8 +2450,8 @@
       <c r="C22" s="1">
         <v>240406</v>
       </c>
-      <c r="D22">
-        <v>2</v>
+      <c r="D22" t="s">
+        <v>34</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -2525,8 +2531,8 @@
       <c r="C23" s="1">
         <v>240369</v>
       </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="D23" t="s">
+        <v>35</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -2630,8 +2636,8 @@
       <c r="C24" s="1">
         <v>240368</v>
       </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="D24" t="s">
+        <v>35</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -2729,8 +2735,8 @@
       <c r="C25" s="1">
         <v>240336</v>
       </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="D25" t="s">
+        <v>35</v>
       </c>
       <c r="E25">
         <v>22</v>
@@ -2834,8 +2840,8 @@
       <c r="C26" s="1">
         <v>240331</v>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="D26" t="s">
+        <v>35</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -2933,8 +2939,8 @@
       <c r="C27" s="1">
         <v>240312</v>
       </c>
-      <c r="D27">
-        <v>2</v>
+      <c r="D27" t="s">
+        <v>34</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -3032,8 +3038,8 @@
       <c r="C28" s="1">
         <v>240294</v>
       </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="D28" t="s">
+        <v>35</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -3137,8 +3143,8 @@
       <c r="C29" s="1">
         <v>237828</v>
       </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="D29" t="s">
+        <v>35</v>
       </c>
       <c r="E29">
         <v>9</v>
@@ -3162,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>36.700000000000003</v>
+        <v>3.67</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -3242,8 +3248,8 @@
       <c r="C30" s="1">
         <v>240435</v>
       </c>
-      <c r="D30">
-        <v>1</v>
+      <c r="D30" t="s">
+        <v>35</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -3311,8 +3317,8 @@
       <c r="C31" s="1">
         <v>240685</v>
       </c>
-      <c r="D31">
-        <v>1</v>
+      <c r="D31" t="s">
+        <v>35</v>
       </c>
       <c r="E31">
         <v>15</v>
@@ -3416,8 +3422,8 @@
       <c r="C32" s="1">
         <v>240211</v>
       </c>
-      <c r="D32">
-        <v>2</v>
+      <c r="D32" t="s">
+        <v>34</v>
       </c>
       <c r="E32">
         <v>33</v>
@@ -3521,8 +3527,8 @@
       <c r="C33" s="1">
         <v>240187</v>
       </c>
-      <c r="D33">
-        <v>2</v>
+      <c r="D33" t="s">
+        <v>34</v>
       </c>
       <c r="E33">
         <v>19</v>
@@ -3620,8 +3626,8 @@
       <c r="C34" s="1">
         <v>240187</v>
       </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="D34" t="s">
+        <v>35</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -3725,8 +3731,8 @@
       <c r="C35" s="1">
         <v>240166</v>
       </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="D35" t="s">
+        <v>35</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -3830,8 +3836,8 @@
       <c r="C36" s="1">
         <v>240859</v>
       </c>
-      <c r="D36">
-        <v>1</v>
+      <c r="D36" t="s">
+        <v>35</v>
       </c>
       <c r="E36">
         <v>23</v>
@@ -3929,8 +3935,8 @@
       <c r="C37" s="1">
         <v>240140</v>
       </c>
-      <c r="D37">
-        <v>2</v>
+      <c r="D37" t="s">
+        <v>34</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -4034,8 +4040,8 @@
       <c r="C38" s="1">
         <v>240038</v>
       </c>
-      <c r="D38">
-        <v>1</v>
+      <c r="D38" t="s">
+        <v>35</v>
       </c>
       <c r="E38">
         <v>57</v>
@@ -4133,8 +4139,8 @@
       <c r="C39" s="1">
         <v>240049</v>
       </c>
-      <c r="D39">
-        <v>1</v>
+      <c r="D39" t="s">
+        <v>35</v>
       </c>
       <c r="E39">
         <v>10</v>
@@ -4238,8 +4244,8 @@
       <c r="C40" s="1">
         <v>240048</v>
       </c>
-      <c r="D40">
-        <v>1</v>
+      <c r="D40" t="s">
+        <v>35</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -4343,8 +4349,8 @@
       <c r="C41" s="1">
         <v>240415</v>
       </c>
-      <c r="D41">
-        <v>2</v>
+      <c r="D41" t="s">
+        <v>34</v>
       </c>
       <c r="E41">
         <v>13</v>
@@ -4412,8 +4418,8 @@
       <c r="C42" s="1">
         <v>240010</v>
       </c>
-      <c r="D42">
-        <v>1</v>
+      <c r="D42" t="s">
+        <v>35</v>
       </c>
       <c r="E42">
         <v>11</v>
@@ -4499,8 +4505,8 @@
       <c r="C43" s="1">
         <v>236389</v>
       </c>
-      <c r="D43">
-        <v>1</v>
+      <c r="D43" t="s">
+        <v>35</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -4604,8 +4610,8 @@
       <c r="C44" s="1">
         <v>239997</v>
       </c>
-      <c r="D44">
-        <v>1</v>
+      <c r="D44" t="s">
+        <v>35</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -4700,8 +4706,8 @@
       <c r="C45" s="1">
         <v>239995</v>
       </c>
-      <c r="D45">
-        <v>1</v>
+      <c r="D45" t="s">
+        <v>35</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -4805,8 +4811,8 @@
       <c r="C46" s="1">
         <v>240891</v>
       </c>
-      <c r="D46">
-        <v>2</v>
+      <c r="D46" t="s">
+        <v>34</v>
       </c>
       <c r="E46">
         <v>30</v>
@@ -4904,8 +4910,8 @@
       <c r="C47" s="1">
         <v>237814</v>
       </c>
-      <c r="D47">
-        <v>2</v>
+      <c r="D47" t="s">
+        <v>34</v>
       </c>
       <c r="E47">
         <v>38</v>
@@ -5003,8 +5009,8 @@
       <c r="C48" s="1">
         <v>240579</v>
       </c>
-      <c r="D48">
-        <v>1</v>
+      <c r="D48" t="s">
+        <v>35</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -5090,8 +5096,8 @@
       <c r="C49" s="1">
         <v>240046</v>
       </c>
-      <c r="D49">
-        <v>2</v>
+      <c r="D49" t="s">
+        <v>34</v>
       </c>
       <c r="E49">
         <v>13</v>
@@ -5189,8 +5195,8 @@
       <c r="C50" s="1">
         <v>240211</v>
       </c>
-      <c r="D50">
-        <v>1</v>
+      <c r="D50" t="s">
+        <v>35</v>
       </c>
       <c r="E50">
         <v>9</v>
@@ -5294,8 +5300,8 @@
       <c r="C51" s="1">
         <v>240123</v>
       </c>
-      <c r="D51">
-        <v>2</v>
+      <c r="D51" t="s">
+        <v>34</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -5393,8 +5399,8 @@
       <c r="C52" s="1">
         <v>237964</v>
       </c>
-      <c r="D52">
-        <v>2</v>
+      <c r="D52" t="s">
+        <v>34</v>
       </c>
       <c r="E52">
         <v>29</v>
@@ -5480,8 +5486,8 @@
       <c r="C53" s="1">
         <v>239903</v>
       </c>
-      <c r="D53">
-        <v>2</v>
+      <c r="D53" t="s">
+        <v>34</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -5585,8 +5591,8 @@
       <c r="C54" s="1">
         <v>239893</v>
       </c>
-      <c r="D54">
-        <v>1</v>
+      <c r="D54" t="s">
+        <v>35</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -5678,8 +5684,8 @@
       <c r="C55" s="1">
         <v>240411</v>
       </c>
-      <c r="D55">
-        <v>1</v>
+      <c r="D55" t="s">
+        <v>35</v>
       </c>
       <c r="E55">
         <v>18</v>
@@ -5783,8 +5789,8 @@
       <c r="C56" s="1">
         <v>240798</v>
       </c>
-      <c r="D56">
-        <v>1</v>
+      <c r="D56" t="s">
+        <v>35</v>
       </c>
       <c r="E56">
         <v>31</v>
@@ -5888,8 +5894,8 @@
       <c r="C57" s="1">
         <v>239849</v>
       </c>
-      <c r="D57">
-        <v>1</v>
+      <c r="D57" t="s">
+        <v>35</v>
       </c>
       <c r="E57">
         <v>7</v>
@@ -5993,8 +5999,8 @@
       <c r="C58" s="1">
         <v>239837</v>
       </c>
-      <c r="D58">
-        <v>1</v>
+      <c r="D58" t="s">
+        <v>35</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -6092,8 +6098,8 @@
       <c r="C59" s="1">
         <v>239815</v>
       </c>
-      <c r="D59">
-        <v>1</v>
+      <c r="D59" t="s">
+        <v>35</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -6179,8 +6185,8 @@
       <c r="C60" s="1">
         <v>239803</v>
       </c>
-      <c r="D60">
-        <v>2</v>
+      <c r="D60" t="s">
+        <v>34</v>
       </c>
       <c r="E60">
         <v>19</v>
@@ -6284,8 +6290,8 @@
       <c r="C61" s="1">
         <v>237856</v>
       </c>
-      <c r="D61">
-        <v>2</v>
+      <c r="D61" t="s">
+        <v>34</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -6389,8 +6395,8 @@
       <c r="C62" s="1">
         <v>240035</v>
       </c>
-      <c r="D62">
-        <v>1</v>
+      <c r="D62" t="s">
+        <v>35</v>
       </c>
       <c r="E62">
         <v>11</v>
@@ -6488,8 +6494,8 @@
       <c r="C63" s="1">
         <v>239752</v>
       </c>
-      <c r="D63">
-        <v>1</v>
+      <c r="D63" t="s">
+        <v>35</v>
       </c>
       <c r="E63">
         <v>13</v>
@@ -6593,8 +6599,8 @@
       <c r="C64" s="1">
         <v>239748</v>
       </c>
-      <c r="D64">
-        <v>2</v>
+      <c r="D64" t="s">
+        <v>34</v>
       </c>
       <c r="E64">
         <v>7</v>
@@ -6698,8 +6704,8 @@
       <c r="C65" s="1">
         <v>239724</v>
       </c>
-      <c r="D65">
-        <v>1</v>
+      <c r="D65" t="s">
+        <v>35</v>
       </c>
       <c r="E65">
         <v>21</v>
@@ -6797,8 +6803,8 @@
       <c r="C66" s="1">
         <v>239714</v>
       </c>
-      <c r="D66">
-        <v>1</v>
+      <c r="D66" t="s">
+        <v>35</v>
       </c>
       <c r="E66">
         <v>25</v>
@@ -6896,8 +6902,8 @@
       <c r="C67" s="1">
         <v>240289</v>
       </c>
-      <c r="D67">
-        <v>2</v>
+      <c r="D67" t="s">
+        <v>34</v>
       </c>
       <c r="E67">
         <v>19</v>
@@ -7001,8 +7007,8 @@
       <c r="C68" s="1">
         <v>239702</v>
       </c>
-      <c r="D68">
-        <v>1</v>
+      <c r="D68" t="s">
+        <v>35</v>
       </c>
       <c r="E68">
         <v>7</v>
@@ -7106,8 +7112,8 @@
       <c r="C69" s="1">
         <v>239688</v>
       </c>
-      <c r="D69">
-        <v>1</v>
+      <c r="D69" t="s">
+        <v>35</v>
       </c>
       <c r="E69">
         <v>13</v>
@@ -7211,8 +7217,8 @@
       <c r="C70" s="1">
         <v>239664</v>
       </c>
-      <c r="D70">
-        <v>1</v>
+      <c r="D70" t="s">
+        <v>35</v>
       </c>
       <c r="E70">
         <v>7</v>
@@ -7316,8 +7322,8 @@
       <c r="C71" s="1">
         <v>239619</v>
       </c>
-      <c r="D71">
-        <v>1</v>
+      <c r="D71" t="s">
+        <v>35</v>
       </c>
       <c r="E71">
         <v>4</v>
@@ -7421,8 +7427,8 @@
       <c r="C72" s="1">
         <v>241001</v>
       </c>
-      <c r="D72">
-        <v>2</v>
+      <c r="D72" t="s">
+        <v>34</v>
       </c>
       <c r="E72">
         <v>46</v>
@@ -7526,8 +7532,8 @@
       <c r="C73" s="1">
         <v>239617</v>
       </c>
-      <c r="D73">
-        <v>1</v>
+      <c r="D73" t="s">
+        <v>35</v>
       </c>
       <c r="E73">
         <v>6</v>
@@ -7595,8 +7601,8 @@
       <c r="C74" s="1">
         <v>239614</v>
       </c>
-      <c r="D74">
-        <v>2</v>
+      <c r="D74" t="s">
+        <v>34</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -7700,8 +7706,8 @@
       <c r="C75" s="1">
         <v>239607</v>
       </c>
-      <c r="D75">
-        <v>1</v>
+      <c r="D75" t="s">
+        <v>35</v>
       </c>
       <c r="E75">
         <v>20</v>
@@ -7805,8 +7811,8 @@
       <c r="C76" s="1">
         <v>239595</v>
       </c>
-      <c r="D76">
-        <v>1</v>
+      <c r="D76" t="s">
+        <v>35</v>
       </c>
       <c r="E76">
         <v>40</v>
@@ -7874,8 +7880,8 @@
       <c r="C77" s="1">
         <v>239577</v>
       </c>
-      <c r="D77">
-        <v>2</v>
+      <c r="D77" t="s">
+        <v>34</v>
       </c>
       <c r="E77">
         <v>8</v>
@@ -7979,8 +7985,8 @@
       <c r="C78" s="1">
         <v>239657</v>
       </c>
-      <c r="D78">
-        <v>1</v>
+      <c r="D78" t="s">
+        <v>35</v>
       </c>
       <c r="E78">
         <v>19</v>
@@ -8078,8 +8084,8 @@
       <c r="C79" s="1">
         <v>239555</v>
       </c>
-      <c r="D79">
-        <v>1</v>
+      <c r="D79" t="s">
+        <v>35</v>
       </c>
       <c r="E79">
         <v>6</v>
@@ -8183,8 +8189,8 @@
       <c r="C80" s="1">
         <v>239552</v>
       </c>
-      <c r="D80">
-        <v>2</v>
+      <c r="D80" t="s">
+        <v>34</v>
       </c>
       <c r="E80">
         <v>39</v>
@@ -8252,8 +8258,8 @@
       <c r="C81" s="1">
         <v>237988</v>
       </c>
-      <c r="D81">
-        <v>1</v>
+      <c r="D81" t="s">
+        <v>35</v>
       </c>
       <c r="E81">
         <v>7</v>
@@ -8321,8 +8327,8 @@
       <c r="C82" s="1">
         <v>239545</v>
       </c>
-      <c r="D82">
-        <v>2</v>
+      <c r="D82" t="s">
+        <v>34</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -8426,8 +8432,8 @@
       <c r="C83" s="1">
         <v>239533</v>
       </c>
-      <c r="D83">
-        <v>1</v>
+      <c r="D83" t="s">
+        <v>35</v>
       </c>
       <c r="E83">
         <v>11</v>
@@ -8525,8 +8531,8 @@
       <c r="C84" s="1">
         <v>238858</v>
       </c>
-      <c r="D84">
-        <v>1</v>
+      <c r="D84" t="s">
+        <v>35</v>
       </c>
       <c r="E84">
         <v>36</v>
@@ -8624,8 +8630,8 @@
       <c r="C85" s="1">
         <v>240011</v>
       </c>
-      <c r="D85">
-        <v>2</v>
+      <c r="D85" t="s">
+        <v>34</v>
       </c>
       <c r="E85">
         <v>16</v>
@@ -8723,8 +8729,8 @@
       <c r="C86" s="1">
         <v>237824</v>
       </c>
-      <c r="D86">
-        <v>2</v>
+      <c r="D86" t="s">
+        <v>34</v>
       </c>
       <c r="E86">
         <v>13</v>
@@ -8828,8 +8834,8 @@
       <c r="C87" s="1">
         <v>239867</v>
       </c>
-      <c r="D87">
-        <v>1</v>
+      <c r="D87" t="s">
+        <v>35</v>
       </c>
       <c r="E87">
         <v>13</v>
@@ -8933,8 +8939,8 @@
       <c r="C88" s="1">
         <v>239470</v>
       </c>
-      <c r="D88">
-        <v>1</v>
+      <c r="D88" t="s">
+        <v>35</v>
       </c>
       <c r="E88">
         <v>11</v>
@@ -9038,8 +9044,8 @@
       <c r="C89" s="1">
         <v>239459</v>
       </c>
-      <c r="D89">
-        <v>1</v>
+      <c r="D89" t="s">
+        <v>35</v>
       </c>
       <c r="E89">
         <v>9</v>
@@ -9137,8 +9143,8 @@
       <c r="C90" s="1">
         <v>239456</v>
       </c>
-      <c r="D90">
-        <v>1</v>
+      <c r="D90" t="s">
+        <v>35</v>
       </c>
       <c r="E90">
         <v>7</v>
@@ -9242,8 +9248,8 @@
       <c r="C91" s="1">
         <v>239360</v>
       </c>
-      <c r="D91">
-        <v>2</v>
+      <c r="D91" t="s">
+        <v>34</v>
       </c>
       <c r="E91">
         <v>9</v>
@@ -9347,8 +9353,8 @@
       <c r="C92" s="1">
         <v>237815</v>
       </c>
-      <c r="D92">
-        <v>2</v>
+      <c r="D92" t="s">
+        <v>34</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -9452,8 +9458,8 @@
       <c r="C93" s="1">
         <v>237809</v>
       </c>
-      <c r="D93">
-        <v>1</v>
+      <c r="D93" t="s">
+        <v>35</v>
       </c>
       <c r="E93">
         <v>16</v>
@@ -9557,8 +9563,8 @@
       <c r="C94" s="1">
         <v>239521</v>
       </c>
-      <c r="D94">
-        <v>2</v>
+      <c r="D94" t="s">
+        <v>34</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -9656,8 +9662,8 @@
       <c r="C95" s="1">
         <v>239311</v>
       </c>
-      <c r="D95">
-        <v>1</v>
+      <c r="D95" t="s">
+        <v>35</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -9761,8 +9767,8 @@
       <c r="C96" s="1">
         <v>239136</v>
       </c>
-      <c r="D96">
-        <v>2</v>
+      <c r="D96" t="s">
+        <v>34</v>
       </c>
       <c r="E96">
         <v>7</v>
@@ -9866,8 +9872,8 @@
       <c r="C97" s="1">
         <v>237846</v>
       </c>
-      <c r="D97">
-        <v>1</v>
+      <c r="D97" t="s">
+        <v>35</v>
       </c>
       <c r="E97">
         <v>7</v>
@@ -9971,8 +9977,8 @@
       <c r="C98" s="1">
         <v>239099</v>
       </c>
-      <c r="D98">
-        <v>1</v>
+      <c r="D98" t="s">
+        <v>35</v>
       </c>
       <c r="E98">
         <v>20</v>
@@ -10070,8 +10076,8 @@
       <c r="C99" s="1">
         <v>239065</v>
       </c>
-      <c r="D99">
-        <v>2</v>
+      <c r="D99" t="s">
+        <v>34</v>
       </c>
       <c r="E99">
         <v>44</v>
@@ -10175,8 +10181,8 @@
       <c r="C100" s="1">
         <v>239007</v>
       </c>
-      <c r="D100">
-        <v>1</v>
+      <c r="D100" t="s">
+        <v>35</v>
       </c>
       <c r="E100">
         <v>21</v>
@@ -10280,8 +10286,8 @@
       <c r="C101" s="1">
         <v>240006</v>
       </c>
-      <c r="D101">
-        <v>2</v>
+      <c r="D101" t="s">
+        <v>34</v>
       </c>
       <c r="E101">
         <v>34</v>
@@ -10367,8 +10373,8 @@
       <c r="C102" s="1">
         <v>238917</v>
       </c>
-      <c r="D102">
-        <v>2</v>
+      <c r="D102" t="s">
+        <v>34</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -10472,8 +10478,8 @@
       <c r="C103" s="1">
         <v>238898</v>
       </c>
-      <c r="D103">
-        <v>1</v>
+      <c r="D103" t="s">
+        <v>35</v>
       </c>
       <c r="E103">
         <v>4</v>
@@ -10577,8 +10583,8 @@
       <c r="C104" s="1">
         <v>238897</v>
       </c>
-      <c r="D104">
-        <v>2</v>
+      <c r="D104" t="s">
+        <v>34</v>
       </c>
       <c r="E104">
         <v>10</v>
@@ -10676,8 +10682,8 @@
       <c r="C105" s="1">
         <v>237936</v>
       </c>
-      <c r="D105">
-        <v>1</v>
+      <c r="D105" t="s">
+        <v>35</v>
       </c>
       <c r="E105">
         <v>10</v>
@@ -10775,8 +10781,8 @@
       <c r="C106" s="1">
         <v>238876</v>
       </c>
-      <c r="D106">
-        <v>2</v>
+      <c r="D106" t="s">
+        <v>34</v>
       </c>
       <c r="E106">
         <v>6</v>
@@ -10880,8 +10886,8 @@
       <c r="C107" s="1">
         <v>238855</v>
       </c>
-      <c r="D107">
-        <v>2</v>
+      <c r="D107" t="s">
+        <v>34</v>
       </c>
       <c r="E107">
         <v>18</v>
@@ -10985,8 +10991,8 @@
       <c r="C108" s="1">
         <v>238066</v>
       </c>
-      <c r="D108">
-        <v>1</v>
+      <c r="D108" t="s">
+        <v>35</v>
       </c>
       <c r="E108">
         <v>4</v>
@@ -11090,8 +11096,8 @@
       <c r="C109" s="1">
         <v>238704</v>
       </c>
-      <c r="D109">
-        <v>2</v>
+      <c r="D109" t="s">
+        <v>34</v>
       </c>
       <c r="E109">
         <v>20</v>
@@ -11177,8 +11183,8 @@
       <c r="C110" s="1">
         <v>239905</v>
       </c>
-      <c r="D110">
-        <v>1</v>
+      <c r="D110" t="s">
+        <v>35</v>
       </c>
       <c r="E110">
         <v>99</v>
@@ -11276,8 +11282,8 @@
       <c r="C111" s="1">
         <v>238683</v>
       </c>
-      <c r="D111">
-        <v>1</v>
+      <c r="D111" t="s">
+        <v>35</v>
       </c>
       <c r="E111">
         <v>15</v>
@@ -11345,8 +11351,8 @@
       <c r="C112" s="1">
         <v>238241</v>
       </c>
-      <c r="D112">
-        <v>1</v>
+      <c r="D112" t="s">
+        <v>35</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -11444,8 +11450,8 @@
       <c r="C113" s="1">
         <v>238645</v>
       </c>
-      <c r="D113">
-        <v>1</v>
+      <c r="D113" t="s">
+        <v>35</v>
       </c>
       <c r="E113">
         <v>6</v>
@@ -11549,8 +11555,8 @@
       <c r="C114" s="1">
         <v>238650</v>
       </c>
-      <c r="D114">
-        <v>1</v>
+      <c r="D114" t="s">
+        <v>35</v>
       </c>
       <c r="E114">
         <v>19</v>
@@ -11654,8 +11660,8 @@
       <c r="C115" s="1">
         <v>238548</v>
       </c>
-      <c r="D115">
-        <v>2</v>
+      <c r="D115" t="s">
+        <v>34</v>
       </c>
       <c r="E115">
         <v>14</v>
@@ -11759,8 +11765,8 @@
       <c r="C116" s="1">
         <v>238527</v>
       </c>
-      <c r="D116">
-        <v>1</v>
+      <c r="D116" t="s">
+        <v>35</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -11864,8 +11870,8 @@
       <c r="C117" s="1">
         <v>238516</v>
       </c>
-      <c r="D117">
-        <v>2</v>
+      <c r="D117" t="s">
+        <v>34</v>
       </c>
       <c r="E117">
         <v>6</v>
@@ -11969,8 +11975,8 @@
       <c r="C118" s="1">
         <v>238444</v>
       </c>
-      <c r="D118">
-        <v>1</v>
+      <c r="D118" t="s">
+        <v>35</v>
       </c>
       <c r="E118">
         <v>27</v>
@@ -12074,8 +12080,8 @@
       <c r="C119" s="1">
         <v>238732</v>
       </c>
-      <c r="D119">
-        <v>2</v>
+      <c r="D119" t="s">
+        <v>34</v>
       </c>
       <c r="E119">
         <v>10</v>
@@ -12173,8 +12179,8 @@
       <c r="C120" s="1">
         <v>238600</v>
       </c>
-      <c r="D120">
-        <v>1</v>
+      <c r="D120" t="s">
+        <v>35</v>
       </c>
       <c r="E120">
         <v>7</v>
@@ -12242,8 +12248,8 @@
       <c r="C121" s="1">
         <v>238366</v>
       </c>
-      <c r="D121">
-        <v>2</v>
+      <c r="D121" t="s">
+        <v>34</v>
       </c>
       <c r="E121">
         <v>7</v>
@@ -12347,8 +12353,8 @@
       <c r="C122" s="1">
         <v>238287</v>
       </c>
-      <c r="D122">
-        <v>1</v>
+      <c r="D122" t="s">
+        <v>35</v>
       </c>
       <c r="E122">
         <v>8</v>
@@ -12416,8 +12422,8 @@
       <c r="C123" s="1">
         <v>238507</v>
       </c>
-      <c r="D123">
-        <v>1</v>
+      <c r="D123" t="s">
+        <v>35</v>
       </c>
       <c r="E123">
         <v>16</v>
@@ -12521,8 +12527,8 @@
       <c r="C124" s="1">
         <v>238521</v>
       </c>
-      <c r="D124">
-        <v>2</v>
+      <c r="D124" t="s">
+        <v>34</v>
       </c>
       <c r="E124">
         <v>10</v>
@@ -12626,8 +12632,8 @@
       <c r="C125" s="1">
         <v>238193</v>
       </c>
-      <c r="D125">
-        <v>1</v>
+      <c r="D125" t="s">
+        <v>35</v>
       </c>
       <c r="E125">
         <v>24</v>
@@ -12731,8 +12737,8 @@
       <c r="C126" s="1">
         <v>238176</v>
       </c>
-      <c r="D126">
-        <v>1</v>
+      <c r="D126" t="s">
+        <v>35</v>
       </c>
       <c r="E126">
         <v>7</v>
@@ -12836,8 +12842,8 @@
       <c r="C127" s="1">
         <v>238162</v>
       </c>
-      <c r="D127">
-        <v>2</v>
+      <c r="D127" t="s">
+        <v>34</v>
       </c>
       <c r="E127">
         <v>7</v>
@@ -12941,8 +12947,8 @@
       <c r="C128" s="1">
         <v>238149</v>
       </c>
-      <c r="D128">
-        <v>2</v>
+      <c r="D128" t="s">
+        <v>34</v>
       </c>
       <c r="E128">
         <v>4</v>
@@ -13043,8 +13049,8 @@
       <c r="C129" s="1">
         <v>238131</v>
       </c>
-      <c r="D129">
-        <v>1</v>
+      <c r="D129" t="s">
+        <v>35</v>
       </c>
       <c r="E129">
         <v>7</v>
@@ -13148,8 +13154,8 @@
       <c r="C130" s="1">
         <v>238103</v>
       </c>
-      <c r="D130">
-        <v>1</v>
+      <c r="D130" t="s">
+        <v>35</v>
       </c>
       <c r="E130">
         <v>6</v>
@@ -13235,8 +13241,8 @@
       <c r="C131" s="1">
         <v>238077</v>
       </c>
-      <c r="D131">
-        <v>2</v>
+      <c r="D131" t="s">
+        <v>34</v>
       </c>
       <c r="E131">
         <v>6</v>
@@ -13340,8 +13346,8 @@
       <c r="C132" s="1">
         <v>240025</v>
       </c>
-      <c r="D132">
-        <v>1</v>
+      <c r="D132" t="s">
+        <v>35</v>
       </c>
       <c r="E132">
         <v>71</v>
@@ -13427,8 +13433,8 @@
       <c r="C133" s="1">
         <v>240255</v>
       </c>
-      <c r="D133">
-        <v>1</v>
+      <c r="D133" t="s">
+        <v>35</v>
       </c>
       <c r="E133">
         <v>25</v>
@@ -13514,8 +13520,8 @@
       <c r="C134" s="1">
         <v>238058</v>
       </c>
-      <c r="D134">
-        <v>2</v>
+      <c r="D134" t="s">
+        <v>34</v>
       </c>
       <c r="E134">
         <v>5</v>
@@ -13619,8 +13625,8 @@
       <c r="C135" s="1">
         <v>238675</v>
       </c>
-      <c r="D135">
-        <v>1</v>
+      <c r="D135" t="s">
+        <v>35</v>
       </c>
       <c r="E135">
         <v>21</v>
@@ -13724,8 +13730,8 @@
       <c r="C136" s="1">
         <v>238101</v>
       </c>
-      <c r="D136">
-        <v>1</v>
+      <c r="D136" t="s">
+        <v>35</v>
       </c>
       <c r="E136">
         <v>32</v>
@@ -13829,8 +13835,8 @@
       <c r="C137" s="1">
         <v>241669</v>
       </c>
-      <c r="D137">
-        <v>1</v>
+      <c r="D137" t="s">
+        <v>35</v>
       </c>
       <c r="E137">
         <v>9</v>
@@ -13934,8 +13940,8 @@
       <c r="C138" s="1">
         <v>241551</v>
       </c>
-      <c r="D138">
-        <v>2</v>
+      <c r="D138" t="s">
+        <v>34</v>
       </c>
       <c r="E138">
         <v>21</v>
@@ -14021,8 +14027,8 @@
       <c r="C139" s="1">
         <v>241416</v>
       </c>
-      <c r="D139">
-        <v>2</v>
+      <c r="D139" t="s">
+        <v>34</v>
       </c>
       <c r="E139">
         <v>24</v>
@@ -14090,8 +14096,8 @@
       <c r="C140" s="1">
         <v>240796</v>
       </c>
-      <c r="D140">
-        <v>2</v>
+      <c r="D140" t="s">
+        <v>34</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -14186,8 +14192,8 @@
       <c r="C141" s="1">
         <v>241036</v>
       </c>
-      <c r="D141">
-        <v>2</v>
+      <c r="D141" t="s">
+        <v>34</v>
       </c>
       <c r="E141">
         <v>24</v>
@@ -14255,8 +14261,8 @@
       <c r="C142" s="1">
         <v>241003</v>
       </c>
-      <c r="D142">
-        <v>1</v>
+      <c r="D142" t="s">
+        <v>35</v>
       </c>
       <c r="E142">
         <v>18</v>
@@ -14324,8 +14330,8 @@
       <c r="C143" s="1">
         <v>241092</v>
       </c>
-      <c r="D143">
-        <v>2</v>
+      <c r="D143" t="s">
+        <v>34</v>
       </c>
       <c r="E143">
         <v>10</v>
@@ -14429,8 +14435,8 @@
       <c r="C144" s="1">
         <v>241056</v>
       </c>
-      <c r="D144">
-        <v>1</v>
+      <c r="D144" t="s">
+        <v>35</v>
       </c>
       <c r="E144">
         <v>18</v>
@@ -14534,8 +14540,8 @@
       <c r="C145" s="1">
         <v>238157</v>
       </c>
-      <c r="D145">
-        <v>2</v>
+      <c r="D145" t="s">
+        <v>34</v>
       </c>
       <c r="E145">
         <v>61</v>
@@ -14639,8 +14645,8 @@
       <c r="C146" s="1">
         <v>239063</v>
       </c>
-      <c r="D146">
-        <v>2</v>
+      <c r="D146" t="s">
+        <v>34</v>
       </c>
       <c r="E146">
         <v>15</v>
@@ -14744,8 +14750,8 @@
       <c r="C147" s="1">
         <v>239090</v>
       </c>
-      <c r="D147">
-        <v>2</v>
+      <c r="D147" t="s">
+        <v>34</v>
       </c>
       <c r="E147">
         <v>17</v>
@@ -14813,8 +14819,8 @@
       <c r="C148" s="1">
         <v>240278</v>
       </c>
-      <c r="D148">
-        <v>2</v>
+      <c r="D148" t="s">
+        <v>34</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -14918,8 +14924,8 @@
       <c r="C149" s="1">
         <v>238696</v>
       </c>
-      <c r="D149">
-        <v>1</v>
+      <c r="D149" t="s">
+        <v>35</v>
       </c>
       <c r="E149">
         <v>43</v>
@@ -15023,8 +15029,8 @@
       <c r="C150" s="1">
         <v>237563</v>
       </c>
-      <c r="D150">
-        <v>1</v>
+      <c r="D150" t="s">
+        <v>35</v>
       </c>
       <c r="E150">
         <v>120</v>
@@ -15092,8 +15098,8 @@
       <c r="C151" s="1">
         <v>237840</v>
       </c>
-      <c r="D151">
-        <v>2</v>
+      <c r="D151" t="s">
+        <v>34</v>
       </c>
       <c r="E151">
         <v>20</v>
@@ -15179,8 +15185,8 @@
       <c r="C152" s="1">
         <v>237844</v>
       </c>
-      <c r="D152">
-        <v>1</v>
+      <c r="D152" t="s">
+        <v>35</v>
       </c>
       <c r="E152">
         <v>6</v>

--- a/psu_intuss.xlsx
+++ b/psu_intuss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/surasaksangkhathat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F02CD48-DE2E-914B-84C9-91CFFA05788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1516F9E-CE35-3143-AFBD-A9E93E8FF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14412,9 +14412,6 @@
       <c r="G136">
         <v>12.5</v>
       </c>
-      <c r="H136">
-        <v>57</v>
-      </c>
       <c r="I136">
         <v>0</v>
       </c>
@@ -14724,9 +14721,6 @@
       <c r="G139">
         <v>8</v>
       </c>
-      <c r="H139">
-        <v>16</v>
-      </c>
       <c r="I139">
         <v>0</v>
       </c>
@@ -15157,9 +15151,6 @@
       <c r="G144">
         <v>14</v>
       </c>
-      <c r="H144">
-        <v>40</v>
-      </c>
       <c r="I144">
         <v>0</v>
       </c>
@@ -15486,9 +15477,6 @@
       </c>
       <c r="G147">
         <v>8.6</v>
-      </c>
-      <c r="H147">
-        <v>12</v>
       </c>
       <c r="I147">
         <v>0</v>

--- a/psu_intuss.xlsx
+++ b/psu_intuss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/surasaksangkhathat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1516F9E-CE35-3143-AFBD-A9E93E8FF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5710EABB-72F6-814B-B713-0EF2E48C569B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>immune deficiency</t>
+  </si>
+  <si>
+    <t>shemale</t>
+  </si>
+  <si>
+    <t>males</t>
   </si>
 </sst>
 </file>
@@ -495,13 +501,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ152"/>
+  <dimension ref="A1:AJ153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -8832,25 +8842,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2">
-        <v>239196</v>
+        <v>239418</v>
       </c>
       <c r="D83" s="2">
-        <v>239533</v>
+        <v>239545</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F83">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G83">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="H83">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -8859,13 +8869,13 @@
         <v>1</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>37.299999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -8874,16 +8884,16 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -8892,43 +8902,49 @@
         <v>1</v>
       </c>
       <c r="V83">
+        <v>6</v>
+      </c>
+      <c r="W83">
+        <v>13950</v>
+      </c>
+      <c r="X83">
+        <v>613000</v>
+      </c>
+      <c r="Y83">
         <v>10</v>
       </c>
-      <c r="W83">
-        <v>14330</v>
-      </c>
-      <c r="X83">
-        <v>414000</v>
-      </c>
-      <c r="Y83">
-        <v>10.199999999999999</v>
-      </c>
       <c r="Z83">
-        <v>30</v>
+        <v>28.8</v>
       </c>
       <c r="AA83">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AB83">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="AC83">
+        <v>5.3</v>
+      </c>
+      <c r="AD83">
+        <v>0.18</v>
       </c>
       <c r="AE83">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF83">
-        <v>3.78</v>
+        <v>4.76</v>
       </c>
       <c r="AG83">
-        <v>103.3</v>
+        <v>108</v>
       </c>
       <c r="AH83">
-        <v>15.4</v>
+        <v>11.3</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.2">
@@ -8936,40 +8952,40 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2">
-        <v>237757</v>
+        <v>239196</v>
       </c>
       <c r="D84" s="2">
-        <v>238858</v>
+        <v>239533</v>
       </c>
       <c r="E84" t="s">
         <v>37</v>
       </c>
       <c r="F84">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G84">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="H84">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>38.700000000000003</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -8978,16 +8994,16 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -8996,40 +9012,40 @@
         <v>1</v>
       </c>
       <c r="V84">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W84">
-        <v>8660</v>
+        <v>14330</v>
       </c>
       <c r="X84">
-        <v>280000</v>
+        <v>414000</v>
       </c>
       <c r="Y84">
-        <v>11.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Z84">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="AA84">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AB84">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AE84">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF84">
-        <v>3.67</v>
+        <v>3.78</v>
       </c>
       <c r="AG84">
-        <v>100</v>
+        <v>103.3</v>
       </c>
       <c r="AH84">
-        <v>18.100000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="AI84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ84" t="s">
         <v>39</v>
@@ -9040,26 +9056,26 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2">
-        <v>239517</v>
+        <v>237757</v>
       </c>
       <c r="D85" s="2">
-        <v>240011</v>
+        <v>238858</v>
       </c>
       <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85">
+        <v>36</v>
+      </c>
+      <c r="G85">
+        <v>14</v>
+      </c>
+      <c r="H85">
         <v>35</v>
       </c>
-      <c r="F85">
-        <v>16</v>
-      </c>
-      <c r="G85">
-        <v>11</v>
-      </c>
-      <c r="H85">
-        <v>65</v>
-      </c>
       <c r="I85">
         <v>1</v>
       </c>
@@ -9073,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="M85">
-        <v>37.9</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -9100,43 +9116,43 @@
         <v>1</v>
       </c>
       <c r="V85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W85">
-        <v>13829</v>
+        <v>8660</v>
       </c>
       <c r="X85">
-        <v>339000</v>
+        <v>280000</v>
       </c>
       <c r="Y85">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="Z85">
-        <v>38.299999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="AA85">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="AB85">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AE85">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AF85">
-        <v>4.71</v>
+        <v>3.67</v>
       </c>
       <c r="AG85">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AH85">
-        <v>16.899999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AI85">
         <v>0</v>
       </c>
       <c r="AJ85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.2">
@@ -9144,28 +9160,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2">
-        <v>237412</v>
+        <v>239517</v>
       </c>
       <c r="D86" s="2">
-        <v>237824</v>
+        <v>240011</v>
       </c>
       <c r="E86" t="s">
         <v>35</v>
       </c>
       <c r="F86">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G86">
-        <v>8.6999999999999993</v>
+        <v>11</v>
       </c>
       <c r="H86">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -9174,19 +9190,19 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>37</v>
+        <v>37.9</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -9195,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -9204,43 +9220,37 @@
         <v>1</v>
       </c>
       <c r="V86">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W86">
-        <v>13550</v>
+        <v>13829</v>
       </c>
       <c r="X86">
-        <v>350000</v>
+        <v>339000</v>
       </c>
       <c r="Y86">
-        <v>10.8</v>
+        <v>12.3</v>
       </c>
       <c r="Z86">
-        <v>32</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="AA86">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AB86">
-        <v>29</v>
-      </c>
-      <c r="AC86">
-        <v>13.7</v>
-      </c>
-      <c r="AD86">
-        <v>0.25</v>
+        <v>30</v>
       </c>
       <c r="AE86">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AF86">
-        <v>4.34</v>
+        <v>4.71</v>
       </c>
       <c r="AG86">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AH86">
-        <v>20</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AI86">
         <v>0</v>
@@ -9254,40 +9264,40 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2">
-        <v>239477</v>
+        <v>237412</v>
       </c>
       <c r="D87" s="2">
-        <v>239867</v>
+        <v>237824</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F87">
         <v>13</v>
       </c>
       <c r="G87">
-        <v>11.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H87">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -9296,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -9305,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -9314,43 +9324,43 @@
         <v>1</v>
       </c>
       <c r="V87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W87">
-        <v>13270</v>
+        <v>13550</v>
       </c>
       <c r="X87">
-        <v>468000</v>
+        <v>350000</v>
       </c>
       <c r="Y87">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="Z87">
-        <v>33.4</v>
+        <v>32</v>
       </c>
       <c r="AA87">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB87">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AC87">
-        <v>11.3</v>
+        <v>13.7</v>
       </c>
       <c r="AD87">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="AE87">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AF87">
-        <v>4.6100000000000003</v>
+        <v>4.34</v>
       </c>
       <c r="AG87">
-        <v>101.9</v>
+        <v>98</v>
       </c>
       <c r="AH87">
-        <v>19.399999999999999</v>
+        <v>20</v>
       </c>
       <c r="AI87">
         <v>0</v>
@@ -9364,103 +9374,103 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2">
-        <v>239131</v>
+        <v>239477</v>
       </c>
       <c r="D88" s="2">
-        <v>239470</v>
+        <v>239867</v>
       </c>
       <c r="E88" t="s">
         <v>37</v>
       </c>
       <c r="F88">
+        <v>13</v>
+      </c>
+      <c r="G88">
+        <v>11.1</v>
+      </c>
+      <c r="H88">
         <v>11</v>
       </c>
-      <c r="G88">
-        <v>11</v>
-      </c>
-      <c r="H88">
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>37.1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <v>7</v>
+      </c>
+      <c r="W88">
+        <v>13270</v>
+      </c>
+      <c r="X88">
+        <v>468000</v>
+      </c>
+      <c r="Y88">
+        <v>11.6</v>
+      </c>
+      <c r="Z88">
+        <v>33.4</v>
+      </c>
+      <c r="AA88">
+        <v>53</v>
+      </c>
+      <c r="AB88">
         <v>40</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>1</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <v>1</v>
-      </c>
-      <c r="V88">
-        <v>8</v>
-      </c>
-      <c r="W88">
-        <v>4950</v>
-      </c>
-      <c r="X88">
-        <v>311000</v>
-      </c>
-      <c r="Y88">
-        <v>11.7</v>
-      </c>
-      <c r="Z88">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="AA88">
-        <v>61</v>
-      </c>
-      <c r="AB88">
-        <v>31</v>
-      </c>
       <c r="AC88">
-        <v>9.6</v>
+        <v>11.3</v>
       </c>
       <c r="AD88">
-        <v>0.14000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="AE88">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF88">
-        <v>4.1900000000000004</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="AG88">
-        <v>105.7</v>
+        <v>101.9</v>
       </c>
       <c r="AH88">
-        <v>14.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AI88">
         <v>0</v>
@@ -9474,25 +9484,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2">
-        <v>239191</v>
+        <v>239131</v>
       </c>
       <c r="D89" s="2">
-        <v>239459</v>
+        <v>239470</v>
       </c>
       <c r="E89" t="s">
         <v>37</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G89">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -9501,13 +9511,13 @@
         <v>1</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>36.9</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -9516,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -9525,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -9534,43 +9544,49 @@
         <v>1</v>
       </c>
       <c r="V89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W89">
-        <v>16320</v>
+        <v>4950</v>
       </c>
       <c r="X89">
-        <v>400000</v>
+        <v>311000</v>
       </c>
       <c r="Y89">
+        <v>11.7</v>
+      </c>
+      <c r="Z89">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AA89">
+        <v>61</v>
+      </c>
+      <c r="AB89">
+        <v>31</v>
+      </c>
+      <c r="AC89">
         <v>9.6</v>
       </c>
-      <c r="Z89">
-        <v>29.7</v>
-      </c>
-      <c r="AA89">
-        <v>63</v>
-      </c>
-      <c r="AB89">
-        <v>37</v>
+      <c r="AD89">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AE89">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AF89">
-        <v>3.58</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="AG89">
-        <v>96</v>
+        <v>105.7</v>
       </c>
       <c r="AH89">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="AI89">
         <v>0</v>
       </c>
       <c r="AJ89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.2">
@@ -9578,25 +9594,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2">
-        <v>239257</v>
+        <v>239191</v>
       </c>
       <c r="D90" s="2">
-        <v>239456</v>
+        <v>239459</v>
       </c>
       <c r="E90" t="s">
         <v>37</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G90">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="H90">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -9608,10 +9624,10 @@
         <v>1</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>38.5</v>
+        <v>36.9</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -9620,16 +9636,16 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -9638,49 +9654,43 @@
         <v>1</v>
       </c>
       <c r="V90">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W90">
-        <v>12230</v>
+        <v>16320</v>
       </c>
       <c r="X90">
-        <v>473000</v>
+        <v>400000</v>
       </c>
       <c r="Y90">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z90">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="AA90">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB90">
-        <v>28</v>
-      </c>
-      <c r="AC90">
-        <v>3.6</v>
-      </c>
-      <c r="AD90">
-        <v>0.12</v>
+        <v>37</v>
       </c>
       <c r="AE90">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF90">
-        <v>3.19</v>
+        <v>3.58</v>
       </c>
       <c r="AG90">
-        <v>96.1</v>
+        <v>96</v>
       </c>
       <c r="AH90">
-        <v>18.399999999999999</v>
+        <v>20</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ90" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.2">
@@ -9688,25 +9698,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2">
-        <v>239085</v>
+        <v>239257</v>
       </c>
       <c r="D91" s="2">
-        <v>239360</v>
+        <v>239456</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G91">
         <v>8</v>
       </c>
       <c r="H91">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -9718,16 +9728,16 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="N91">
         <v>1</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91">
         <v>1</v>
@@ -9748,40 +9758,40 @@
         <v>1</v>
       </c>
       <c r="V91">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W91">
-        <v>10200</v>
+        <v>12230</v>
       </c>
       <c r="X91">
-        <v>241000</v>
+        <v>473000</v>
       </c>
       <c r="Y91">
-        <v>10.9</v>
+        <v>9.4</v>
       </c>
       <c r="Z91">
-        <v>32</v>
+        <v>29.2</v>
       </c>
       <c r="AA91">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AB91">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AC91">
-        <v>6.9</v>
+        <v>3.6</v>
       </c>
       <c r="AD91">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="AE91">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF91">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="AG91">
-        <v>100.9</v>
+        <v>96.1</v>
       </c>
       <c r="AH91">
         <v>18.399999999999999</v>
@@ -9790,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="AJ91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.2">
@@ -9798,25 +9808,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2">
-        <v>237629</v>
+        <v>239085</v>
       </c>
       <c r="D92" s="2">
-        <v>237815</v>
+        <v>239360</v>
       </c>
       <c r="E92" t="s">
         <v>35</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H92">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -9828,28 +9838,28 @@
         <v>1</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -9858,49 +9868,49 @@
         <v>1</v>
       </c>
       <c r="V92">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W92">
-        <v>9230</v>
+        <v>10200</v>
       </c>
       <c r="X92">
-        <v>535000</v>
+        <v>241000</v>
       </c>
       <c r="Y92">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="Z92">
-        <v>34.700000000000003</v>
+        <v>32</v>
       </c>
       <c r="AA92">
+        <v>70</v>
+      </c>
+      <c r="AB92">
+        <v>23</v>
+      </c>
+      <c r="AC92">
+        <v>6.9</v>
+      </c>
+      <c r="AD92">
+        <v>0.18</v>
+      </c>
+      <c r="AE92">
+        <v>133</v>
+      </c>
+      <c r="AF92">
+        <v>3.43</v>
+      </c>
+      <c r="AG92">
+        <v>100.9</v>
+      </c>
+      <c r="AH92">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AI92">
+        <v>1</v>
+      </c>
+      <c r="AJ92" t="s">
         <v>39</v>
-      </c>
-      <c r="AB92">
-        <v>38</v>
-      </c>
-      <c r="AC92">
-        <v>25.9</v>
-      </c>
-      <c r="AD92">
-        <v>0.75</v>
-      </c>
-      <c r="AE92">
-        <v>136</v>
-      </c>
-      <c r="AF92">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="AG92">
-        <v>98</v>
-      </c>
-      <c r="AH92">
-        <v>20</v>
-      </c>
-      <c r="AI92">
-        <v>0</v>
-      </c>
-      <c r="AJ92" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.2">
@@ -9908,109 +9918,109 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2">
-        <v>237301</v>
+        <v>237629</v>
       </c>
       <c r="D93" s="2">
-        <v>237809</v>
+        <v>237815</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F93">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G93">
+        <v>6</v>
+      </c>
+      <c r="H93">
+        <v>81</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>38</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+      <c r="V93">
         <v>11</v>
       </c>
-      <c r="H93">
-        <v>51</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <v>1</v>
-      </c>
-      <c r="V93">
-        <v>5</v>
-      </c>
       <c r="W93">
-        <v>15950</v>
+        <v>9230</v>
       </c>
       <c r="X93">
-        <v>592000</v>
+        <v>535000</v>
       </c>
       <c r="Y93">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="Z93">
-        <v>31.6</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AA93">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AB93">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AC93">
-        <v>18.8</v>
+        <v>25.9</v>
       </c>
       <c r="AD93">
-        <v>0.27</v>
+        <v>0.75</v>
       </c>
       <c r="AE93">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AF93">
-        <v>5.05</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="AG93">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AH93">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI93">
         <v>0</v>
       </c>
       <c r="AJ93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.2">
@@ -10018,28 +10028,28 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2">
-        <v>239260</v>
+        <v>237301</v>
       </c>
       <c r="D94" s="2">
-        <v>239521</v>
+        <v>237809</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F94">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G94">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="H94">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -10051,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>36</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -10078,37 +10088,43 @@
         <v>1</v>
       </c>
       <c r="V94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W94">
-        <v>5430</v>
+        <v>15950</v>
       </c>
       <c r="X94">
-        <v>383000</v>
+        <v>592000</v>
       </c>
       <c r="Y94">
-        <v>12.8</v>
+        <v>10.3</v>
       </c>
       <c r="Z94">
-        <v>38.4</v>
+        <v>31.6</v>
       </c>
       <c r="AA94">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AB94">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="AC94">
+        <v>18.8</v>
+      </c>
+      <c r="AD94">
+        <v>0.27</v>
       </c>
       <c r="AE94">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AF94">
-        <v>4.41</v>
+        <v>5.05</v>
       </c>
       <c r="AG94">
-        <v>96.6</v>
+        <v>109</v>
       </c>
       <c r="AH94">
-        <v>15.4</v>
+        <v>21</v>
       </c>
       <c r="AI94">
         <v>0</v>
@@ -10122,106 +10138,100 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2">
-        <v>239151</v>
+        <v>239260</v>
       </c>
       <c r="D95" s="2">
-        <v>239311</v>
+        <v>239521</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G95">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H95">
+        <v>38</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>36</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>1</v>
+      </c>
+      <c r="V95">
         <v>6</v>
       </c>
-      <c r="H95">
-        <v>39</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>1</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <v>1</v>
-      </c>
-      <c r="V95">
-        <v>9</v>
-      </c>
       <c r="W95">
-        <v>5880</v>
+        <v>5430</v>
       </c>
       <c r="X95">
-        <v>298000</v>
+        <v>383000</v>
       </c>
       <c r="Y95">
-        <v>8.9</v>
+        <v>12.8</v>
       </c>
       <c r="Z95">
-        <v>28.1</v>
+        <v>38.4</v>
       </c>
       <c r="AA95">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AB95">
-        <v>68</v>
-      </c>
-      <c r="AC95">
-        <v>4.8</v>
-      </c>
-      <c r="AD95">
-        <v>0.15</v>
+        <v>63</v>
       </c>
       <c r="AE95">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AF95">
-        <v>3.06</v>
+        <v>4.41</v>
       </c>
       <c r="AG95">
-        <v>102.2</v>
+        <v>96.6</v>
       </c>
       <c r="AH95">
-        <v>19.8</v>
+        <v>15.4</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ95" t="s">
         <v>38</v>
@@ -10232,25 +10242,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2">
-        <v>238911</v>
+        <v>239151</v>
       </c>
       <c r="D96" s="2">
-        <v>239136</v>
+        <v>239311</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G96">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="H96">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -10265,13 +10275,13 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>37.299999999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -10283,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -10292,49 +10302,49 @@
         <v>1</v>
       </c>
       <c r="V96">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W96">
-        <v>6580</v>
+        <v>5880</v>
       </c>
       <c r="X96">
-        <v>525000</v>
+        <v>298000</v>
       </c>
       <c r="Y96">
-        <v>10.1</v>
+        <v>8.9</v>
       </c>
       <c r="Z96">
-        <v>30</v>
+        <v>28.1</v>
       </c>
       <c r="AA96">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="AB96">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AC96">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="AD96">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AE96">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AF96">
-        <v>3.46</v>
+        <v>3.06</v>
       </c>
       <c r="AG96">
-        <v>91.6</v>
+        <v>102.2</v>
       </c>
       <c r="AH96">
-        <v>22</v>
+        <v>19.8</v>
       </c>
       <c r="AI96">
         <v>1</v>
       </c>
       <c r="AJ96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.2">
@@ -10342,58 +10352,58 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2">
-        <v>237631</v>
+        <v>238911</v>
       </c>
       <c r="D97" s="2">
-        <v>237846</v>
+        <v>239136</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F97">
         <v>7</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="H97">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>1</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
       <c r="M97">
-        <v>37.4</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -10402,46 +10412,46 @@
         <v>1</v>
       </c>
       <c r="V97">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W97">
-        <v>10280</v>
+        <v>6580</v>
       </c>
       <c r="X97">
-        <v>710000</v>
+        <v>525000</v>
       </c>
       <c r="Y97">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="Z97">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA97">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="AB97">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AC97">
-        <v>14.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AD97">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AE97">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AF97">
-        <v>3.98</v>
+        <v>3.46</v>
       </c>
       <c r="AG97">
-        <v>104</v>
+        <v>91.6</v>
       </c>
       <c r="AH97">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ97" t="s">
         <v>40</v>
@@ -10452,40 +10462,40 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2">
-        <v>238481</v>
+        <v>237631</v>
       </c>
       <c r="D98" s="2">
-        <v>239099</v>
+        <v>237846</v>
       </c>
       <c r="E98" t="s">
         <v>37</v>
       </c>
       <c r="F98">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G98">
         <v>10</v>
       </c>
       <c r="H98">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>1</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
       <c r="M98">
-        <v>36.9</v>
+        <v>37.4</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -10512,37 +10522,43 @@
         <v>1</v>
       </c>
       <c r="V98">
+        <v>5</v>
+      </c>
+      <c r="W98">
+        <v>10280</v>
+      </c>
+      <c r="X98">
+        <v>710000</v>
+      </c>
+      <c r="Y98">
         <v>10</v>
       </c>
-      <c r="W98">
-        <v>11300</v>
-      </c>
-      <c r="X98">
-        <v>530000</v>
-      </c>
-      <c r="Y98">
-        <v>11.7</v>
-      </c>
       <c r="Z98">
-        <v>36.299999999999997</v>
+        <v>29</v>
       </c>
       <c r="AA98">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AB98">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="AC98">
+        <v>14.3</v>
+      </c>
+      <c r="AD98">
+        <v>0.23</v>
       </c>
       <c r="AE98">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AF98">
-        <v>4.3600000000000003</v>
+        <v>3.98</v>
       </c>
       <c r="AG98">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH98">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="AI98">
         <v>0</v>
@@ -10556,103 +10572,97 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2">
-        <v>237715</v>
+        <v>238481</v>
       </c>
       <c r="D99" s="2">
-        <v>239065</v>
+        <v>239099</v>
       </c>
       <c r="E99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99">
+        <v>10</v>
+      </c>
+      <c r="H99">
+        <v>71</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>36.9</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="V99">
+        <v>10</v>
+      </c>
+      <c r="W99">
+        <v>11300</v>
+      </c>
+      <c r="X99">
+        <v>530000</v>
+      </c>
+      <c r="Y99">
+        <v>11.7</v>
+      </c>
+      <c r="Z99">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AA99">
         <v>35</v>
       </c>
-      <c r="F99">
-        <v>44</v>
-      </c>
-      <c r="G99">
-        <v>14</v>
-      </c>
-      <c r="H99">
-        <v>63</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99">
-        <v>38.1</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-      <c r="T99">
-        <v>0</v>
-      </c>
-      <c r="U99">
-        <v>1</v>
-      </c>
-      <c r="V99">
-        <v>4</v>
-      </c>
-      <c r="W99">
-        <v>17200</v>
-      </c>
-      <c r="X99">
-        <v>258000</v>
-      </c>
-      <c r="Y99">
-        <v>11</v>
-      </c>
-      <c r="Z99">
-        <v>34.6</v>
-      </c>
-      <c r="AA99">
-        <v>78</v>
-      </c>
       <c r="AB99">
-        <v>11</v>
-      </c>
-      <c r="AC99">
-        <v>13.2</v>
-      </c>
-      <c r="AD99">
-        <v>0.38</v>
+        <v>45</v>
       </c>
       <c r="AE99">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AF99">
-        <v>4.5999999999999996</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="AG99">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AH99">
-        <v>12.2</v>
+        <v>20.6</v>
       </c>
       <c r="AI99">
         <v>0</v>
@@ -10666,43 +10676,43 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2">
-        <v>238381</v>
+        <v>237715</v>
       </c>
       <c r="D100" s="2">
-        <v>239007</v>
+        <v>239065</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F100">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G100">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="H100">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
       <c r="M100">
-        <v>37</v>
+        <v>38.1</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -10726,49 +10736,49 @@
         <v>1</v>
       </c>
       <c r="V100">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W100">
-        <v>10170</v>
+        <v>17200</v>
       </c>
       <c r="X100">
-        <v>280000</v>
+        <v>258000</v>
       </c>
       <c r="Y100">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="Z100">
-        <v>34.200000000000003</v>
+        <v>34.6</v>
       </c>
       <c r="AA100">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AB100">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="AC100">
-        <v>11.6</v>
+        <v>13.2</v>
       </c>
       <c r="AD100">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AE100">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF100">
-        <v>3.88</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AG100">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="AH100">
-        <v>14.7</v>
+        <v>12.2</v>
       </c>
       <c r="AI100">
         <v>0</v>
       </c>
       <c r="AJ100" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.2">
@@ -10776,25 +10786,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2">
-        <v>238968</v>
+        <v>238381</v>
       </c>
       <c r="D101" s="2">
-        <v>240006</v>
+        <v>239007</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F101">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G101">
-        <v>23.5</v>
+        <v>12.5</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -10803,25 +10813,25 @@
         <v>1</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101">
         <v>0</v>
       </c>
       <c r="P101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -10839,28 +10849,46 @@
         <v>7</v>
       </c>
       <c r="W101">
-        <v>17760</v>
+        <v>10170</v>
       </c>
       <c r="X101">
-        <v>426000</v>
+        <v>280000</v>
       </c>
       <c r="Y101">
-        <v>12.7</v>
+        <v>11.4</v>
       </c>
       <c r="Z101">
-        <v>35.9</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AA101">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="AB101">
-        <v>17</v>
+        <v>59</v>
+      </c>
+      <c r="AC101">
+        <v>11.6</v>
+      </c>
+      <c r="AD101">
+        <v>0.31</v>
+      </c>
+      <c r="AE101">
+        <v>142</v>
+      </c>
+      <c r="AF101">
+        <v>3.88</v>
+      </c>
+      <c r="AG101">
+        <v>104.8</v>
+      </c>
+      <c r="AH101">
+        <v>14.7</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ101" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.2">
@@ -10868,28 +10896,28 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2">
-        <v>238751</v>
+        <v>238968</v>
       </c>
       <c r="D102" s="2">
-        <v>238917</v>
+        <v>240006</v>
       </c>
       <c r="E102" t="s">
         <v>35</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G102">
-        <v>6.9</v>
+        <v>23.5</v>
       </c>
       <c r="H102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -10898,22 +10926,22 @@
         <v>1</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102">
-        <v>37.5</v>
+        <v>36</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R102">
         <v>0</v>
@@ -10928,49 +10956,31 @@
         <v>1</v>
       </c>
       <c r="V102">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W102">
-        <v>12160</v>
+        <v>17760</v>
       </c>
       <c r="X102">
-        <v>753000</v>
+        <v>426000</v>
       </c>
       <c r="Y102">
-        <v>9.9</v>
+        <v>12.7</v>
       </c>
       <c r="Z102">
-        <v>31.7</v>
+        <v>35.9</v>
       </c>
       <c r="AA102">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="AB102">
-        <v>65</v>
-      </c>
-      <c r="AC102">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AD102">
-        <v>0.21</v>
-      </c>
-      <c r="AE102">
-        <v>135</v>
-      </c>
-      <c r="AF102">
-        <v>3.76</v>
-      </c>
-      <c r="AG102">
-        <v>102.3</v>
-      </c>
-      <c r="AH102">
-        <v>21.7</v>
+        <v>17</v>
       </c>
       <c r="AI102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ102" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.2">
@@ -10978,28 +10988,28 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2">
-        <v>238776</v>
+        <v>238751</v>
       </c>
       <c r="D103" s="2">
-        <v>238898</v>
+        <v>238917</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G103">
-        <v>5.2</v>
+        <v>6.9</v>
       </c>
       <c r="H103">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -11011,76 +11021,76 @@
         <v>1</v>
       </c>
       <c r="M103">
-        <v>38.299999999999997</v>
+        <v>37.5</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O103">
         <v>0</v>
       </c>
       <c r="P103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S103">
         <v>0</v>
       </c>
       <c r="T103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U103">
         <v>1</v>
       </c>
       <c r="V103">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W103">
-        <v>13570</v>
+        <v>12160</v>
       </c>
       <c r="X103">
-        <v>401000</v>
+        <v>753000</v>
       </c>
       <c r="Y103">
-        <v>11.4</v>
+        <v>9.9</v>
       </c>
       <c r="Z103">
-        <v>34.799999999999997</v>
+        <v>31.7</v>
       </c>
       <c r="AA103">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AB103">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AC103">
-        <v>27.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AD103">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="AE103">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AF103">
-        <v>3.71</v>
+        <v>3.76</v>
       </c>
       <c r="AG103">
-        <v>105.6</v>
+        <v>102.3</v>
       </c>
       <c r="AH103">
-        <v>15.1</v>
+        <v>21.7</v>
       </c>
       <c r="AI103">
         <v>0</v>
       </c>
       <c r="AJ103" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.2">
@@ -11088,103 +11098,109 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2">
-        <v>238577</v>
+        <v>238776</v>
       </c>
       <c r="D104" s="2">
-        <v>238897</v>
+        <v>238898</v>
       </c>
       <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <v>5.2</v>
+      </c>
+      <c r="H104">
+        <v>17</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="V104">
+        <v>13</v>
+      </c>
+      <c r="W104">
+        <v>13570</v>
+      </c>
+      <c r="X104">
+        <v>401000</v>
+      </c>
+      <c r="Y104">
+        <v>11.4</v>
+      </c>
+      <c r="Z104">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AA104">
         <v>35</v>
       </c>
-      <c r="F104">
-        <v>10</v>
-      </c>
-      <c r="G104">
-        <v>8.4</v>
-      </c>
-      <c r="H104">
-        <v>54</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104">
-        <v>1</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1</v>
-      </c>
-      <c r="S104">
-        <v>0</v>
-      </c>
-      <c r="T104">
-        <v>0</v>
-      </c>
-      <c r="U104">
-        <v>1</v>
-      </c>
-      <c r="V104">
-        <v>9</v>
-      </c>
-      <c r="W104">
-        <v>11950</v>
-      </c>
-      <c r="X104">
-        <v>549000</v>
-      </c>
-      <c r="Y104">
-        <v>10.3</v>
-      </c>
-      <c r="Z104">
-        <v>31.1</v>
-      </c>
-      <c r="AA104">
-        <v>69</v>
-      </c>
       <c r="AB104">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="AC104">
+        <v>27.2</v>
+      </c>
+      <c r="AD104">
+        <v>0.37</v>
       </c>
       <c r="AE104">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AF104">
-        <v>2.2999999999999998</v>
+        <v>3.71</v>
       </c>
       <c r="AG104">
-        <v>97.9</v>
+        <v>105.6</v>
       </c>
       <c r="AH104">
-        <v>21.9</v>
+        <v>15.1</v>
       </c>
       <c r="AI104">
         <v>0</v>
       </c>
       <c r="AJ104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.2">
@@ -11192,28 +11208,28 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2">
-        <v>237613</v>
+        <v>238577</v>
       </c>
       <c r="D105" s="2">
-        <v>237936</v>
+        <v>238897</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F105">
         <v>10</v>
       </c>
       <c r="G105">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="H105">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11225,22 +11241,22 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>37.6</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105">
         <v>0</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
         <v>0</v>
       </c>
       <c r="R105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -11252,43 +11268,43 @@
         <v>1</v>
       </c>
       <c r="V105">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W105">
-        <v>12560</v>
+        <v>11950</v>
       </c>
       <c r="X105">
-        <v>616000</v>
+        <v>549000</v>
       </c>
       <c r="Y105">
-        <v>10.9</v>
+        <v>10.3</v>
       </c>
       <c r="Z105">
-        <v>33</v>
+        <v>31.1</v>
       </c>
       <c r="AA105">
+        <v>69</v>
+      </c>
+      <c r="AB105">
         <v>26</v>
       </c>
-      <c r="AB105">
-        <v>54</v>
-      </c>
       <c r="AE105">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AF105">
-        <v>4.57</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AG105">
-        <v>102</v>
+        <v>97.9</v>
       </c>
       <c r="AH105">
-        <v>21</v>
+        <v>21.9</v>
       </c>
       <c r="AI105">
         <v>0</v>
       </c>
       <c r="AJ105" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.2">
@@ -11296,43 +11312,43 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2">
-        <v>238694</v>
+        <v>237613</v>
       </c>
       <c r="D106" s="2">
-        <v>238876</v>
+        <v>237936</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G106">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H106">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>1</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>37</v>
+        <v>37.6</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -11356,49 +11372,43 @@
         <v>1</v>
       </c>
       <c r="V106">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W106">
-        <v>12500</v>
+        <v>12560</v>
       </c>
       <c r="X106">
-        <v>895000</v>
+        <v>616000</v>
       </c>
       <c r="Y106">
         <v>10.9</v>
       </c>
       <c r="Z106">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="AA106">
+        <v>26</v>
+      </c>
+      <c r="AB106">
+        <v>54</v>
+      </c>
+      <c r="AE106">
+        <v>140</v>
+      </c>
+      <c r="AF106">
+        <v>4.57</v>
+      </c>
+      <c r="AG106">
+        <v>102</v>
+      </c>
+      <c r="AH106">
         <v>21</v>
       </c>
-      <c r="AB106">
-        <v>44</v>
-      </c>
-      <c r="AC106">
-        <v>13.2</v>
-      </c>
-      <c r="AD106">
-        <v>0.2</v>
-      </c>
-      <c r="AE106">
-        <v>127</v>
-      </c>
-      <c r="AF106">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="AG106">
-        <v>92.8</v>
-      </c>
-      <c r="AH106">
-        <v>15.8</v>
-      </c>
       <c r="AI106">
         <v>0</v>
       </c>
       <c r="AJ106" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.2">
@@ -11406,43 +11416,43 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107" s="2">
-        <v>238306</v>
+        <v>238694</v>
       </c>
       <c r="D107" s="2">
-        <v>238855</v>
+        <v>238876</v>
       </c>
       <c r="E107" t="s">
         <v>35</v>
       </c>
       <c r="F107">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G107">
-        <v>9.1999999999999993</v>
+        <v>6.5</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
       <c r="M107">
-        <v>36.700000000000003</v>
+        <v>37</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -11466,43 +11476,43 @@
         <v>1</v>
       </c>
       <c r="V107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W107">
-        <v>12440</v>
+        <v>12500</v>
       </c>
       <c r="X107">
-        <v>472000</v>
+        <v>895000</v>
       </c>
       <c r="Y107">
-        <v>12.4</v>
+        <v>10.9</v>
       </c>
       <c r="Z107">
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="AA107">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="AB107">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AC107">
-        <v>14.8</v>
+        <v>13.2</v>
       </c>
       <c r="AD107">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="AE107">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="AF107">
-        <v>4.87</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AG107">
-        <v>107.9</v>
+        <v>92.8</v>
       </c>
       <c r="AH107">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="AI107">
         <v>0</v>
@@ -11516,31 +11526,31 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2">
-        <v>237939</v>
+        <v>238306</v>
       </c>
       <c r="D108" s="2">
-        <v>238066</v>
+        <v>238855</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G108">
-        <v>5.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H108">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -11549,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>37</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -11576,49 +11586,49 @@
         <v>1</v>
       </c>
       <c r="V108">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W108">
-        <v>13400</v>
+        <v>12440</v>
       </c>
       <c r="X108">
-        <v>507000</v>
+        <v>472000</v>
       </c>
       <c r="Y108">
-        <v>10.5</v>
+        <v>12.4</v>
       </c>
       <c r="Z108">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="AA108">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AB108">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AC108">
-        <v>5.3</v>
+        <v>14.8</v>
       </c>
       <c r="AD108">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AE108">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AF108">
-        <v>4.16</v>
+        <v>4.87</v>
       </c>
       <c r="AG108">
-        <v>104.3</v>
+        <v>107.9</v>
       </c>
       <c r="AH108">
-        <v>17</v>
+        <v>15.3</v>
       </c>
       <c r="AI108">
         <v>0</v>
       </c>
       <c r="AJ108" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.2">
@@ -11626,31 +11636,31 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2">
-        <v>238119</v>
+        <v>237939</v>
       </c>
       <c r="D109" s="2">
-        <v>238704</v>
+        <v>238066</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F109">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G109">
-        <v>8.8000000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="H109">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -11659,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -11686,25 +11696,43 @@
         <v>1</v>
       </c>
       <c r="V109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W109">
-        <v>11720</v>
+        <v>13400</v>
       </c>
       <c r="X109">
-        <v>301000</v>
+        <v>507000</v>
       </c>
       <c r="Y109">
-        <v>11.7</v>
+        <v>10.5</v>
       </c>
       <c r="Z109">
-        <v>36.200000000000003</v>
+        <v>31.7</v>
       </c>
       <c r="AA109">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AB109">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="AC109">
+        <v>5.3</v>
+      </c>
+      <c r="AD109">
+        <v>0.2</v>
+      </c>
+      <c r="AE109">
+        <v>138</v>
+      </c>
+      <c r="AF109">
+        <v>4.16</v>
+      </c>
+      <c r="AG109">
+        <v>104.3</v>
+      </c>
+      <c r="AH109">
+        <v>17</v>
       </c>
       <c r="AI109">
         <v>0</v>
@@ -11718,28 +11746,28 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2">
-        <v>236325</v>
+        <v>238119</v>
       </c>
       <c r="D110" s="2">
-        <v>239905</v>
+        <v>238704</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F110">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="G110">
-        <v>25</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H110">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -11751,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -11760,10 +11788,10 @@
         <v>0</v>
       </c>
       <c r="P110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -11778,43 +11806,31 @@
         <v>1</v>
       </c>
       <c r="V110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W110">
-        <v>7040</v>
+        <v>11720</v>
       </c>
       <c r="X110">
-        <v>257000</v>
+        <v>301000</v>
       </c>
       <c r="Y110">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="Z110">
-        <v>34.1</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="AA110">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB110">
         <v>39</v>
       </c>
-      <c r="AE110">
-        <v>135</v>
-      </c>
-      <c r="AF110">
-        <v>3.87</v>
-      </c>
-      <c r="AG110">
-        <v>197.1</v>
-      </c>
-      <c r="AH110">
-        <v>19.2</v>
-      </c>
       <c r="AI110">
         <v>0</v>
       </c>
       <c r="AJ110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.2">
@@ -11822,31 +11838,31 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111" s="2">
-        <v>238222</v>
+        <v>236325</v>
       </c>
       <c r="D111" s="2">
-        <v>238683</v>
+        <v>239905</v>
       </c>
       <c r="E111" t="s">
         <v>37</v>
       </c>
       <c r="F111">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G111">
+        <v>25</v>
+      </c>
+      <c r="H111">
         <v>9</v>
       </c>
-      <c r="H111">
-        <v>16</v>
-      </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -11882,13 +11898,43 @@
         <v>1</v>
       </c>
       <c r="V111">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="W111">
+        <v>7040</v>
+      </c>
+      <c r="X111">
+        <v>257000</v>
+      </c>
+      <c r="Y111">
+        <v>11.8</v>
+      </c>
+      <c r="Z111">
+        <v>34.1</v>
+      </c>
+      <c r="AA111">
+        <v>49</v>
+      </c>
+      <c r="AB111">
+        <v>39</v>
+      </c>
+      <c r="AE111">
+        <v>135</v>
+      </c>
+      <c r="AF111">
+        <v>3.87</v>
+      </c>
+      <c r="AG111">
+        <v>197.1</v>
+      </c>
+      <c r="AH111">
+        <v>19.2</v>
       </c>
       <c r="AI111">
         <v>0</v>
       </c>
       <c r="AJ111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.2">
@@ -11896,25 +11942,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112" s="2">
-        <v>238126</v>
+        <v>238222</v>
       </c>
       <c r="D112" s="2">
-        <v>238241</v>
+        <v>238683</v>
       </c>
       <c r="E112" t="s">
         <v>37</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G112">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="H112">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -11929,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>37.200000000000003</v>
+        <v>37</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -11938,10 +11984,10 @@
         <v>0</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -11956,37 +12002,7 @@
         <v>1</v>
       </c>
       <c r="V112">
-        <v>6</v>
-      </c>
-      <c r="W112">
-        <v>18020</v>
-      </c>
-      <c r="X112">
-        <v>300000</v>
-      </c>
-      <c r="Y112">
-        <v>11.9</v>
-      </c>
-      <c r="Z112">
-        <v>33.9</v>
-      </c>
-      <c r="AA112">
-        <v>60</v>
-      </c>
-      <c r="AB112">
-        <v>28</v>
-      </c>
-      <c r="AE112">
-        <v>138</v>
-      </c>
-      <c r="AF112">
-        <v>4.45</v>
-      </c>
-      <c r="AG112">
-        <v>107</v>
-      </c>
-      <c r="AH112">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AI112">
         <v>0</v>
@@ -12000,25 +12016,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2">
-        <v>238468</v>
+        <v>238126</v>
       </c>
       <c r="D113" s="2">
-        <v>238645</v>
+        <v>238241</v>
       </c>
       <c r="E113" t="s">
         <v>37</v>
       </c>
       <c r="F113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G113">
-        <v>9.3000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="H113">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -12033,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>35.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -12063,46 +12079,40 @@
         <v>6</v>
       </c>
       <c r="W113">
-        <v>14550</v>
+        <v>18020</v>
       </c>
       <c r="X113">
-        <v>264000</v>
+        <v>300000</v>
       </c>
       <c r="Y113">
-        <v>10.5</v>
+        <v>11.9</v>
       </c>
       <c r="Z113">
-        <v>31.3</v>
+        <v>33.9</v>
       </c>
       <c r="AA113">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AB113">
-        <v>32</v>
-      </c>
-      <c r="AC113">
-        <v>11.2</v>
-      </c>
-      <c r="AD113">
-        <v>0.33</v>
+        <v>28</v>
       </c>
       <c r="AE113">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF113">
-        <v>4.1900000000000004</v>
+        <v>4.45</v>
       </c>
       <c r="AG113">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AH113">
-        <v>13.8</v>
+        <v>20</v>
       </c>
       <c r="AI113">
         <v>0</v>
       </c>
       <c r="AJ113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.2">
@@ -12110,40 +12120,40 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114" s="2">
-        <v>238069</v>
+        <v>238468</v>
       </c>
       <c r="D114" s="2">
-        <v>238650</v>
+        <v>238645</v>
       </c>
       <c r="E114" t="s">
         <v>37</v>
       </c>
       <c r="F114">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G114">
-        <v>11</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H114">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
       <c r="M114">
-        <v>36.799999999999997</v>
+        <v>35.5</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -12173,46 +12183,46 @@
         <v>6</v>
       </c>
       <c r="W114">
-        <v>9090</v>
+        <v>14550</v>
       </c>
       <c r="X114">
-        <v>372000</v>
+        <v>264000</v>
       </c>
       <c r="Y114">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z114">
-        <v>36.4</v>
+        <v>31.3</v>
       </c>
       <c r="AA114">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AB114">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC114">
-        <v>12.3</v>
+        <v>11.2</v>
       </c>
       <c r="AD114">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="AE114">
         <v>137</v>
       </c>
       <c r="AF114">
-        <v>4.41</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="AG114">
-        <v>103.3</v>
+        <v>102</v>
       </c>
       <c r="AH114">
-        <v>21.2</v>
+        <v>13.8</v>
       </c>
       <c r="AI114">
         <v>0</v>
       </c>
       <c r="AJ114" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.2">
@@ -12220,25 +12230,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115" s="2">
-        <v>238110</v>
+        <v>238069</v>
       </c>
       <c r="D115" s="2">
-        <v>238548</v>
+        <v>238650</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F115">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G115">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="H115">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -12253,10 +12263,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>37.6</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -12280,49 +12290,49 @@
         <v>1</v>
       </c>
       <c r="V115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W115">
-        <v>16730</v>
+        <v>9090</v>
       </c>
       <c r="X115">
-        <v>652000</v>
+        <v>372000</v>
       </c>
       <c r="Y115">
-        <v>10.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z115">
-        <v>31.4</v>
+        <v>36.4</v>
       </c>
       <c r="AA115">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AB115">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AC115">
-        <v>10.9</v>
+        <v>12.3</v>
       </c>
       <c r="AD115">
-        <v>0.28000000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="AE115">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF115">
-        <v>5.08</v>
+        <v>4.41</v>
       </c>
       <c r="AG115">
-        <v>105.6</v>
+        <v>103.3</v>
       </c>
       <c r="AH115">
-        <v>18.2</v>
+        <v>21.2</v>
       </c>
       <c r="AI115">
         <v>0</v>
       </c>
       <c r="AJ115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.2">
@@ -12330,40 +12340,40 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116" s="2">
-        <v>238335</v>
+        <v>238110</v>
       </c>
       <c r="D116" s="2">
-        <v>238527</v>
+        <v>238548</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F116">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G116">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="H116">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
       <c r="M116">
-        <v>36.4</v>
+        <v>37.6</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -12372,10 +12382,10 @@
         <v>0</v>
       </c>
       <c r="P116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -12390,49 +12400,49 @@
         <v>1</v>
       </c>
       <c r="V116">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W116">
-        <v>15780</v>
+        <v>16730</v>
       </c>
       <c r="X116">
-        <v>643000</v>
+        <v>652000</v>
       </c>
       <c r="Y116">
-        <v>11.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Z116">
-        <v>34.200000000000003</v>
+        <v>31.4</v>
       </c>
       <c r="AA116">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="AB116">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="AC116">
-        <v>18.600000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="AD116">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AE116">
         <v>136</v>
       </c>
       <c r="AF116">
-        <v>4.9000000000000004</v>
+        <v>5.08</v>
       </c>
       <c r="AG116">
-        <v>99.7</v>
+        <v>105.6</v>
       </c>
       <c r="AH116">
-        <v>15.3</v>
+        <v>18.2</v>
       </c>
       <c r="AI116">
         <v>0</v>
       </c>
       <c r="AJ116" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.2">
@@ -12440,22 +12450,22 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2">
-        <v>238352</v>
+        <v>238335</v>
       </c>
       <c r="D117" s="2">
-        <v>238516</v>
+        <v>238527</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F117">
         <v>6</v>
       </c>
       <c r="G117">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="H117">
         <v>11</v>
@@ -12473,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -12482,10 +12492,10 @@
         <v>0</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117">
         <v>0</v>
@@ -12500,49 +12510,49 @@
         <v>1</v>
       </c>
       <c r="V117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W117">
-        <v>14460</v>
+        <v>15780</v>
       </c>
       <c r="X117">
-        <v>359000</v>
+        <v>643000</v>
       </c>
       <c r="Y117">
-        <v>10.8</v>
+        <v>11.5</v>
       </c>
       <c r="Z117">
-        <v>32.200000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AA117">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AB117">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AC117">
-        <v>10</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AD117">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AE117">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF117">
-        <v>4.21</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AG117">
-        <v>102.5</v>
+        <v>99.7</v>
       </c>
       <c r="AH117">
-        <v>18</v>
+        <v>15.3</v>
       </c>
       <c r="AI117">
         <v>0</v>
       </c>
       <c r="AJ117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.2">
@@ -12550,31 +12560,31 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118" s="2">
-        <v>237602</v>
+        <v>238352</v>
       </c>
       <c r="D118" s="2">
-        <v>238444</v>
+        <v>238516</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F118">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G118">
-        <v>12.8</v>
+        <v>8</v>
       </c>
       <c r="H118">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -12583,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -12610,43 +12620,43 @@
         <v>1</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W118">
-        <v>10280</v>
+        <v>14460</v>
       </c>
       <c r="X118">
-        <v>349000</v>
+        <v>359000</v>
       </c>
       <c r="Y118">
-        <v>12.3</v>
+        <v>10.8</v>
       </c>
       <c r="Z118">
-        <v>35.299999999999997</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="AA118">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AB118">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC118">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD118">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="AE118">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AF118">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
       <c r="AG118">
-        <v>106.9</v>
+        <v>102.5</v>
       </c>
       <c r="AH118">
-        <v>17.399999999999999</v>
+        <v>18</v>
       </c>
       <c r="AI118">
         <v>0</v>
@@ -12660,28 +12670,28 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2">
-        <v>238438</v>
+        <v>237602</v>
       </c>
       <c r="D119" s="2">
-        <v>238732</v>
+        <v>238444</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G119">
-        <v>7.9</v>
+        <v>12.8</v>
       </c>
       <c r="H119">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -12720,37 +12730,43 @@
         <v>1</v>
       </c>
       <c r="V119">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>9670</v>
+        <v>10280</v>
       </c>
       <c r="X119">
-        <v>958000</v>
+        <v>349000</v>
       </c>
       <c r="Y119">
-        <v>10.9</v>
+        <v>12.3</v>
       </c>
       <c r="Z119">
-        <v>34.700000000000003</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="AA119">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="AB119">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="AC119">
+        <v>11.5</v>
+      </c>
+      <c r="AD119">
+        <v>0.34</v>
       </c>
       <c r="AE119">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF119">
-        <v>4.79</v>
+        <v>4.24</v>
       </c>
       <c r="AG119">
-        <v>103.8</v>
+        <v>106.9</v>
       </c>
       <c r="AH119">
-        <v>19.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AI119">
         <v>0</v>
@@ -12764,67 +12780,97 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120" s="2">
-        <v>238409</v>
+        <v>238438</v>
       </c>
       <c r="D120" s="2">
-        <v>238600</v>
+        <v>238732</v>
       </c>
       <c r="E120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120">
+        <v>7.9</v>
+      </c>
+      <c r="H120">
+        <v>92</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
         <v>37</v>
       </c>
-      <c r="F120">
-        <v>7</v>
-      </c>
-      <c r="G120">
-        <v>8.4</v>
-      </c>
-      <c r="H120">
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>1</v>
+      </c>
+      <c r="V120">
         <v>6</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120">
-        <v>1</v>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120">
-        <v>38.6</v>
-      </c>
-      <c r="N120">
-        <v>1</v>
-      </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>0</v>
-      </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
-      <c r="T120">
-        <v>0</v>
-      </c>
-      <c r="U120">
-        <v>1</v>
-      </c>
-      <c r="V120">
-        <v>11</v>
+      <c r="W120">
+        <v>9670</v>
+      </c>
+      <c r="X120">
+        <v>958000</v>
+      </c>
+      <c r="Y120">
+        <v>10.9</v>
+      </c>
+      <c r="Z120">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AA120">
+        <v>48</v>
+      </c>
+      <c r="AB120">
+        <v>42</v>
+      </c>
+      <c r="AE120">
+        <v>139</v>
+      </c>
+      <c r="AF120">
+        <v>4.79</v>
+      </c>
+      <c r="AG120">
+        <v>103.8</v>
+      </c>
+      <c r="AH120">
+        <v>19.100000000000001</v>
       </c>
       <c r="AI120">
         <v>0</v>
@@ -12838,25 +12884,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121" s="2">
-        <v>238166</v>
+        <v>238409</v>
       </c>
       <c r="D121" s="2">
-        <v>238366</v>
+        <v>238600</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F121">
         <v>7</v>
       </c>
       <c r="G121">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="H121">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -12865,19 +12911,19 @@
         <v>1</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="N121">
         <v>1</v>
       </c>
       <c r="O121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -12900,47 +12946,11 @@
       <c r="V121">
         <v>11</v>
       </c>
-      <c r="W121">
-        <v>11350</v>
-      </c>
-      <c r="X121">
-        <v>460000</v>
-      </c>
-      <c r="Y121">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="Z121">
-        <v>30.9</v>
-      </c>
-      <c r="AA121">
-        <v>49</v>
-      </c>
-      <c r="AB121">
-        <v>32</v>
-      </c>
-      <c r="AC121">
-        <v>15.4</v>
-      </c>
-      <c r="AD121">
-        <v>0.3</v>
-      </c>
-      <c r="AE121">
-        <v>136</v>
-      </c>
-      <c r="AF121">
-        <v>4.93</v>
-      </c>
-      <c r="AG121">
-        <v>99.3</v>
-      </c>
-      <c r="AH121">
-        <v>13.3</v>
-      </c>
       <c r="AI121">
         <v>0</v>
       </c>
       <c r="AJ121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.2">
@@ -12948,25 +12958,25 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C122" s="2">
-        <v>238063</v>
+        <v>238166</v>
       </c>
       <c r="D122" s="2">
-        <v>238287</v>
+        <v>238366</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F122">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G122">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="H122">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -12975,19 +12985,19 @@
         <v>1</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122">
-        <v>37.700000000000003</v>
+        <v>38.9</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -13008,13 +13018,49 @@
         <v>1</v>
       </c>
       <c r="V122">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="W122">
+        <v>11350</v>
+      </c>
+      <c r="X122">
+        <v>460000</v>
+      </c>
+      <c r="Y122">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Z122">
+        <v>30.9</v>
+      </c>
+      <c r="AA122">
+        <v>49</v>
+      </c>
+      <c r="AB122">
+        <v>32</v>
+      </c>
+      <c r="AC122">
+        <v>15.4</v>
+      </c>
+      <c r="AD122">
+        <v>0.3</v>
+      </c>
+      <c r="AE122">
+        <v>136</v>
+      </c>
+      <c r="AF122">
+        <v>4.93</v>
+      </c>
+      <c r="AG122">
+        <v>99.3</v>
+      </c>
+      <c r="AH122">
+        <v>13.3</v>
       </c>
       <c r="AI122">
         <v>0</v>
       </c>
       <c r="AJ122" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.2">
@@ -13022,25 +13068,25 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C123" s="2">
-        <v>238011</v>
+        <v>238063</v>
       </c>
       <c r="D123" s="2">
-        <v>238507</v>
+        <v>238287</v>
       </c>
       <c r="E123" t="s">
         <v>37</v>
       </c>
       <c r="F123">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G123">
-        <v>10.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="H123">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -13049,13 +13095,13 @@
         <v>1</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
       <c r="M123">
-        <v>36.799999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -13082,49 +13128,13 @@
         <v>1</v>
       </c>
       <c r="V123">
-        <v>7</v>
-      </c>
-      <c r="W123">
-        <v>9790</v>
-      </c>
-      <c r="X123">
-        <v>234000</v>
-      </c>
-      <c r="Y123">
-        <v>10.9</v>
-      </c>
-      <c r="Z123">
-        <v>33.4</v>
-      </c>
-      <c r="AA123">
-        <v>57</v>
-      </c>
-      <c r="AB123">
-        <v>30</v>
-      </c>
-      <c r="AC123">
-        <v>15</v>
-      </c>
-      <c r="AD123">
-        <v>0.38</v>
-      </c>
-      <c r="AE123">
-        <v>139</v>
-      </c>
-      <c r="AF123">
-        <v>4.62</v>
-      </c>
-      <c r="AG123">
-        <v>101.6</v>
-      </c>
-      <c r="AH123">
-        <v>19.2</v>
+        <v>9</v>
       </c>
       <c r="AI123">
         <v>0</v>
       </c>
       <c r="AJ123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.2">
@@ -13132,40 +13142,40 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C124" s="2">
-        <v>238220</v>
+        <v>238011</v>
       </c>
       <c r="D124" s="2">
-        <v>238521</v>
+        <v>238507</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G124">
-        <v>7.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H124">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124">
-        <v>38.200000000000003</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -13192,43 +13202,43 @@
         <v>1</v>
       </c>
       <c r="V124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W124">
-        <v>6190</v>
+        <v>9790</v>
       </c>
       <c r="X124">
-        <v>442000</v>
+        <v>234000</v>
       </c>
       <c r="Y124">
-        <v>12.9</v>
+        <v>10.9</v>
       </c>
       <c r="Z124">
-        <v>37.799999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="AA124">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="AB124">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AC124">
-        <v>12.3</v>
+        <v>15</v>
       </c>
       <c r="AD124">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="AE124">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AF124">
-        <v>4.7300000000000004</v>
+        <v>4.62</v>
       </c>
       <c r="AG124">
-        <v>93.2</v>
+        <v>101.6</v>
       </c>
       <c r="AH124">
-        <v>19.899999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="AI124">
         <v>0</v>
@@ -13242,109 +13252,109 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125" s="2">
-        <v>237828</v>
+        <v>238220</v>
       </c>
       <c r="D125" s="2">
-        <v>238193</v>
+        <v>238521</v>
       </c>
       <c r="E125" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
+        <v>7.5</v>
+      </c>
+      <c r="H125">
+        <v>33</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>1</v>
+      </c>
+      <c r="V125">
+        <v>8</v>
+      </c>
+      <c r="W125">
+        <v>6190</v>
+      </c>
+      <c r="X125">
+        <v>442000</v>
+      </c>
+      <c r="Y125">
+        <v>12.9</v>
+      </c>
+      <c r="Z125">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AA125">
+        <v>21</v>
+      </c>
+      <c r="AB125">
         <v>37</v>
       </c>
-      <c r="F125">
-        <v>24</v>
-      </c>
-      <c r="G125">
-        <v>9.4</v>
-      </c>
-      <c r="H125">
-        <v>10</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>37</v>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>0</v>
-      </c>
-      <c r="S125">
-        <v>0</v>
-      </c>
-      <c r="T125">
-        <v>0</v>
-      </c>
-      <c r="U125">
-        <v>1</v>
-      </c>
-      <c r="V125">
-        <v>4</v>
-      </c>
-      <c r="W125">
-        <v>13170</v>
-      </c>
-      <c r="X125">
-        <v>360000</v>
-      </c>
-      <c r="Y125">
-        <v>11.2</v>
-      </c>
-      <c r="Z125">
-        <v>32.4</v>
-      </c>
-      <c r="AA125">
-        <v>73</v>
-      </c>
-      <c r="AB125">
-        <v>20</v>
-      </c>
       <c r="AC125">
-        <v>10.3</v>
+        <v>12.3</v>
       </c>
       <c r="AD125">
         <v>0.24</v>
       </c>
       <c r="AE125">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF125">
-        <v>4</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="AG125">
-        <v>106</v>
+        <v>93.2</v>
       </c>
       <c r="AH125">
-        <v>19</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AI125">
         <v>0</v>
       </c>
       <c r="AJ125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.2">
@@ -13352,34 +13362,34 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" s="2">
-        <v>237956</v>
+        <v>237828</v>
       </c>
       <c r="D126" s="2">
-        <v>238176</v>
+        <v>238193</v>
       </c>
       <c r="E126" t="s">
         <v>37</v>
       </c>
       <c r="F126">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G126">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="H126">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -13388,22 +13398,22 @@
         <v>37</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
         <v>0</v>
       </c>
       <c r="R126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -13412,49 +13422,49 @@
         <v>1</v>
       </c>
       <c r="V126">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W126">
-        <v>13520</v>
+        <v>13170</v>
       </c>
       <c r="X126">
-        <v>481000</v>
+        <v>360000</v>
       </c>
       <c r="Y126">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="Z126">
-        <v>25.6</v>
+        <v>32.4</v>
       </c>
       <c r="AA126">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AB126">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC126">
-        <v>20.7</v>
+        <v>10.3</v>
       </c>
       <c r="AD126">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="AE126">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF126">
-        <v>4.9800000000000004</v>
+        <v>4</v>
       </c>
       <c r="AG126">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AH126">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ126" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.2">
@@ -13462,31 +13472,31 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" s="2">
-        <v>237955</v>
+        <v>237956</v>
       </c>
       <c r="D127" s="2">
-        <v>238162</v>
+        <v>238176</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F127">
         <v>7</v>
       </c>
       <c r="G127">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="H127">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -13495,25 +13505,25 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>37.4</v>
+        <v>37</v>
       </c>
       <c r="N127">
         <v>1</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127">
         <v>0</v>
       </c>
       <c r="R127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127">
         <v>0</v>
@@ -13522,49 +13532,49 @@
         <v>1</v>
       </c>
       <c r="V127">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W127">
-        <v>24000</v>
+        <v>13520</v>
       </c>
       <c r="X127">
-        <v>608000</v>
+        <v>481000</v>
       </c>
       <c r="Y127">
-        <v>10.7</v>
+        <v>12.2</v>
       </c>
       <c r="Z127">
-        <v>32.1</v>
+        <v>25.6</v>
       </c>
       <c r="AA127">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="AB127">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC127">
-        <v>11.9</v>
+        <v>20.7</v>
       </c>
       <c r="AD127">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="AE127">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AF127">
-        <v>4.1900000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="AG127">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AH127">
         <v>21</v>
       </c>
       <c r="AI127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ127" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.2">
@@ -13572,58 +13582,58 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="2">
-        <v>238005</v>
+        <v>237955</v>
       </c>
       <c r="D128" s="2">
-        <v>238149</v>
+        <v>238162</v>
       </c>
       <c r="E128" t="s">
         <v>35</v>
       </c>
       <c r="F128">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G128">
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
       <c r="H128">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128">
-        <v>37.799999999999997</v>
+        <v>37.4</v>
       </c>
       <c r="N128">
         <v>1</v>
       </c>
       <c r="O128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
         <v>0</v>
       </c>
       <c r="R128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T128">
         <v>0</v>
@@ -13632,46 +13642,49 @@
         <v>1</v>
       </c>
       <c r="V128">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W128">
-        <v>12840</v>
+        <v>24000</v>
       </c>
       <c r="X128">
-        <v>411000</v>
+        <v>608000</v>
       </c>
       <c r="Y128">
-        <v>10.1</v>
+        <v>10.7</v>
       </c>
       <c r="Z128">
         <v>32.1</v>
       </c>
       <c r="AA128">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AB128">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AC128">
-        <v>8.1999999999999993</v>
+        <v>11.9</v>
       </c>
       <c r="AD128">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AE128">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AF128">
-        <v>3.31</v>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AG128">
+        <v>104</v>
       </c>
       <c r="AH128">
         <v>21</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ128" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.2">
@@ -13679,28 +13692,28 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129" s="2">
-        <v>237889</v>
+        <v>238005</v>
       </c>
       <c r="D129" s="2">
-        <v>238131</v>
+        <v>238149</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F129">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G129">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -13709,28 +13722,28 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129">
-        <v>37.5</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129">
         <v>0</v>
       </c>
       <c r="R129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129">
         <v>0</v>
@@ -13739,49 +13752,46 @@
         <v>1</v>
       </c>
       <c r="V129">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W129">
-        <v>16710</v>
+        <v>12840</v>
       </c>
       <c r="X129">
-        <v>574000</v>
+        <v>411000</v>
       </c>
       <c r="Y129">
-        <v>9.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="Z129">
-        <v>30.7</v>
+        <v>32.1</v>
       </c>
       <c r="AA129">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="AB129">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AC129">
-        <v>5.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD129">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="AE129">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AF129">
-        <v>3.18</v>
-      </c>
-      <c r="AG129">
-        <v>103</v>
+        <v>3.31</v>
       </c>
       <c r="AH129">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.2">
@@ -13789,85 +13799,103 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130" s="2">
-        <v>237911</v>
+        <v>237889</v>
       </c>
       <c r="D130" s="2">
-        <v>238103</v>
+        <v>238131</v>
       </c>
       <c r="E130" t="s">
         <v>37</v>
       </c>
       <c r="F130">
+        <v>7</v>
+      </c>
+      <c r="G130">
+        <v>7</v>
+      </c>
+      <c r="H130">
+        <v>5</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>37.5</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="V130">
         <v>6</v>
       </c>
-      <c r="G130">
-        <v>7.6</v>
-      </c>
-      <c r="H130">
-        <v>11</v>
-      </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-      <c r="Q130">
-        <v>0</v>
-      </c>
-      <c r="R130">
-        <v>0</v>
-      </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
-      <c r="T130">
-        <v>0</v>
-      </c>
-      <c r="U130">
-        <v>1</v>
-      </c>
-      <c r="V130">
-        <v>4</v>
-      </c>
       <c r="W130">
-        <v>19520</v>
+        <v>16710</v>
       </c>
       <c r="X130">
-        <v>560000</v>
+        <v>574000</v>
       </c>
       <c r="Y130">
-        <v>10.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z130">
-        <v>34.5</v>
+        <v>30.7</v>
       </c>
       <c r="AA130">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="AB130">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="AC130">
+        <v>5.3</v>
+      </c>
+      <c r="AD130">
+        <v>0.22</v>
+      </c>
+      <c r="AE130">
+        <v>135</v>
+      </c>
+      <c r="AF130">
+        <v>3.18</v>
+      </c>
+      <c r="AG130">
+        <v>103</v>
+      </c>
+      <c r="AH130">
+        <v>22</v>
       </c>
       <c r="AI130">
         <v>0</v>
@@ -13881,58 +13909,58 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131" s="2">
-        <v>237883</v>
+        <v>237911</v>
       </c>
       <c r="D131" s="2">
-        <v>238077</v>
+        <v>238103</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F131">
         <v>6</v>
       </c>
       <c r="G131">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="H131">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
       <c r="M131">
-        <v>37</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O131">
         <v>0</v>
       </c>
       <c r="P131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -13941,46 +13969,28 @@
         <v>1</v>
       </c>
       <c r="V131">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W131">
-        <v>16460</v>
+        <v>19520</v>
       </c>
       <c r="X131">
-        <v>471000</v>
+        <v>560000</v>
       </c>
       <c r="Y131">
-        <v>9.6999999999999993</v>
+        <v>10.8</v>
       </c>
       <c r="Z131">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="AA131">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AB131">
-        <v>7</v>
-      </c>
-      <c r="AC131">
-        <v>5.8</v>
-      </c>
-      <c r="AD131">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AE131">
-        <v>133</v>
-      </c>
-      <c r="AF131">
-        <v>3.05</v>
-      </c>
-      <c r="AG131">
-        <v>99</v>
-      </c>
-      <c r="AH131">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ131" t="s">
         <v>40</v>
@@ -13991,58 +14001,58 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132" s="2">
-        <v>237836</v>
+        <v>237883</v>
       </c>
       <c r="D132" s="2">
-        <v>240025</v>
+        <v>238077</v>
       </c>
       <c r="E132" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132">
+        <v>6</v>
+      </c>
+      <c r="G132">
+        <v>6.8</v>
+      </c>
+      <c r="H132">
+        <v>22</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
         <v>37</v>
       </c>
-      <c r="F132">
-        <v>71</v>
-      </c>
-      <c r="G132">
-        <v>18.2</v>
-      </c>
-      <c r="H132">
-        <v>12</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132">
-        <v>36.4</v>
-      </c>
       <c r="N132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132">
         <v>0</v>
       </c>
       <c r="P132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T132">
         <v>0</v>
@@ -14051,31 +14061,49 @@
         <v>1</v>
       </c>
       <c r="V132">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W132">
-        <v>12760</v>
+        <v>16460</v>
       </c>
       <c r="X132">
-        <v>316000</v>
+        <v>471000</v>
       </c>
       <c r="Y132">
-        <v>11.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Z132">
-        <v>33.6</v>
+        <v>30</v>
       </c>
       <c r="AA132">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="AB132">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="AC132">
+        <v>5.8</v>
+      </c>
+      <c r="AD132">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE132">
+        <v>133</v>
+      </c>
+      <c r="AF132">
+        <v>3.05</v>
+      </c>
+      <c r="AG132">
+        <v>99</v>
+      </c>
+      <c r="AH132">
+        <v>24</v>
       </c>
       <c r="AI132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ132" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.2">
@@ -14083,25 +14111,25 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133" s="2">
-        <v>237312</v>
+        <v>237836</v>
       </c>
       <c r="D133" s="2">
-        <v>240255</v>
+        <v>240025</v>
       </c>
       <c r="E133" t="s">
         <v>37</v>
       </c>
       <c r="F133">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G133">
-        <v>12.2</v>
+        <v>18.2</v>
       </c>
       <c r="H133">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -14110,7 +14138,7 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133">
         <v>0</v>
@@ -14119,7 +14147,7 @@
         <v>36.4</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -14143,31 +14171,31 @@
         <v>1</v>
       </c>
       <c r="V133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W133">
-        <v>10790</v>
+        <v>12760</v>
       </c>
       <c r="X133">
-        <v>232000</v>
+        <v>316000</v>
       </c>
       <c r="Y133">
-        <v>12</v>
+        <v>11.1</v>
       </c>
       <c r="Z133">
-        <v>37.9</v>
+        <v>33.6</v>
       </c>
       <c r="AA133">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AB133">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI133">
         <v>0</v>
       </c>
       <c r="AJ133" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.2">
@@ -14175,58 +14203,58 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134" s="2">
-        <v>237895</v>
+        <v>237312</v>
       </c>
       <c r="D134" s="2">
-        <v>238058</v>
+        <v>240255</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F134">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G134">
-        <v>5.7</v>
+        <v>12.2</v>
       </c>
       <c r="H134">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>1</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134">
-        <v>38.799999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="N134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O134">
         <v>0</v>
       </c>
       <c r="P134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R134">
         <v>0</v>
       </c>
       <c r="S134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T134">
         <v>0</v>
@@ -14235,49 +14263,31 @@
         <v>1</v>
       </c>
       <c r="V134">
+        <v>3</v>
+      </c>
+      <c r="W134">
+        <v>10790</v>
+      </c>
+      <c r="X134">
+        <v>232000</v>
+      </c>
+      <c r="Y134">
         <v>12</v>
       </c>
-      <c r="W134">
-        <v>6700</v>
-      </c>
-      <c r="X134">
-        <v>561000</v>
-      </c>
-      <c r="Y134">
-        <v>8</v>
-      </c>
       <c r="Z134">
-        <v>26.1</v>
+        <v>37.9</v>
       </c>
       <c r="AA134">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="AB134">
-        <v>15</v>
-      </c>
-      <c r="AC134">
-        <v>23.6</v>
-      </c>
-      <c r="AD134">
-        <v>0.34</v>
-      </c>
-      <c r="AE134">
-        <v>134</v>
-      </c>
-      <c r="AF134">
-        <v>3.21</v>
-      </c>
-      <c r="AG134">
-        <v>98</v>
-      </c>
-      <c r="AH134">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.2">
@@ -14285,106 +14295,106 @@
         <v>133</v>
       </c>
       <c r="B135">
+        <v>133</v>
+      </c>
+      <c r="C135" s="2">
+        <v>237895</v>
+      </c>
+      <c r="D135" s="2">
+        <v>238058</v>
+      </c>
+      <c r="E135" t="s">
+        <v>41</v>
+      </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
+      <c r="G135">
+        <v>5.7</v>
+      </c>
+      <c r="H135">
+        <v>54</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>1</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>1</v>
+      </c>
+      <c r="V135">
+        <v>12</v>
+      </c>
+      <c r="W135">
+        <v>6700</v>
+      </c>
+      <c r="X135">
+        <v>561000</v>
+      </c>
+      <c r="Y135">
+        <v>8</v>
+      </c>
+      <c r="Z135">
+        <v>26.1</v>
+      </c>
+      <c r="AA135">
+        <v>12</v>
+      </c>
+      <c r="AB135">
+        <v>15</v>
+      </c>
+      <c r="AC135">
+        <v>23.6</v>
+      </c>
+      <c r="AD135">
+        <v>0.34</v>
+      </c>
+      <c r="AE135">
         <v>134</v>
       </c>
-      <c r="C135" s="2">
-        <v>238035</v>
-      </c>
-      <c r="D135" s="2">
-        <v>238675</v>
-      </c>
-      <c r="E135" t="s">
-        <v>37</v>
-      </c>
-      <c r="F135">
-        <v>21</v>
-      </c>
-      <c r="G135">
-        <v>13.4</v>
-      </c>
-      <c r="H135">
-        <v>61</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135">
-        <v>1</v>
-      </c>
-      <c r="Q135">
-        <v>1</v>
-      </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-      <c r="S135">
-        <v>0</v>
-      </c>
-      <c r="T135">
-        <v>0</v>
-      </c>
-      <c r="U135">
-        <v>1</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
-      <c r="W135">
-        <v>14260</v>
-      </c>
-      <c r="X135">
-        <v>409000</v>
-      </c>
-      <c r="Y135">
-        <v>11.9</v>
-      </c>
-      <c r="Z135">
-        <v>36.1</v>
-      </c>
-      <c r="AA135">
-        <v>67</v>
-      </c>
-      <c r="AB135">
-        <v>24</v>
-      </c>
-      <c r="AC135">
-        <v>7.4</v>
-      </c>
-      <c r="AD135">
-        <v>0.24</v>
-      </c>
-      <c r="AE135">
-        <v>139</v>
-      </c>
       <c r="AF135">
-        <v>4.49</v>
+        <v>3.21</v>
       </c>
       <c r="AG135">
-        <v>103.5</v>
+        <v>98</v>
       </c>
       <c r="AH135">
-        <v>19.2</v>
+        <v>26</v>
       </c>
       <c r="AI135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ135" t="s">
         <v>39</v>
@@ -14395,22 +14405,25 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136" s="2">
-        <v>236870</v>
+        <v>238035</v>
       </c>
       <c r="D136" s="2">
-        <v>238101</v>
+        <v>238675</v>
       </c>
       <c r="E136" t="s">
         <v>37</v>
       </c>
       <c r="F136">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G136">
-        <v>12.5</v>
+        <v>13.4</v>
+      </c>
+      <c r="H136">
+        <v>61</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -14419,25 +14432,25 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
       <c r="M136">
-        <v>36.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O136">
         <v>0</v>
       </c>
       <c r="P136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R136">
         <v>0</v>
@@ -14452,49 +14465,49 @@
         <v>1</v>
       </c>
       <c r="V136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>13360</v>
+        <v>14260</v>
       </c>
       <c r="X136">
-        <v>463000</v>
+        <v>409000</v>
       </c>
       <c r="Y136">
-        <v>10.6</v>
+        <v>11.9</v>
       </c>
       <c r="Z136">
-        <v>32</v>
+        <v>36.1</v>
       </c>
       <c r="AA136">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="AB136">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AC136">
-        <v>14.9</v>
+        <v>7.4</v>
       </c>
       <c r="AD136">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="AE136">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF136">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="AG136">
-        <v>109.9</v>
+        <v>103.5</v>
       </c>
       <c r="AH136">
-        <v>14.2</v>
+        <v>19.2</v>
       </c>
       <c r="AI136">
         <v>0</v>
       </c>
       <c r="AJ136" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.2">
@@ -14502,31 +14515,28 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C137" s="2">
-        <v>241369</v>
+        <v>236870</v>
       </c>
       <c r="D137" s="2">
-        <v>241669</v>
+        <v>238101</v>
       </c>
       <c r="E137" t="s">
         <v>37</v>
       </c>
       <c r="F137">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G137">
-        <v>7.5</v>
-      </c>
-      <c r="H137">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>1</v>
@@ -14535,10 +14545,10 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>37.4</v>
+        <v>36.5</v>
       </c>
       <c r="N137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -14562,49 +14572,49 @@
         <v>1</v>
       </c>
       <c r="V137">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W137">
-        <v>20660</v>
+        <v>13360</v>
       </c>
       <c r="X137">
-        <v>412000</v>
+        <v>463000</v>
       </c>
       <c r="Y137">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="Z137">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA137">
+        <v>46</v>
+      </c>
+      <c r="AB137">
+        <v>45</v>
+      </c>
+      <c r="AC137">
+        <v>14.9</v>
+      </c>
+      <c r="AD137">
+        <v>0.41</v>
+      </c>
+      <c r="AE137">
+        <v>140</v>
+      </c>
+      <c r="AF137">
+        <v>4.51</v>
+      </c>
+      <c r="AG137">
+        <v>109.9</v>
+      </c>
+      <c r="AH137">
+        <v>14.2</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137" t="s">
         <v>36</v>
-      </c>
-      <c r="AB137">
-        <v>52</v>
-      </c>
-      <c r="AC137">
-        <v>7</v>
-      </c>
-      <c r="AD137">
-        <v>0.16</v>
-      </c>
-      <c r="AE137">
-        <v>137</v>
-      </c>
-      <c r="AF137">
-        <v>4.8</v>
-      </c>
-      <c r="AG137">
-        <v>100.9</v>
-      </c>
-      <c r="AH137">
-        <v>16.7</v>
-      </c>
-      <c r="AI137">
-        <v>0</v>
-      </c>
-      <c r="AJ137" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.2">
@@ -14612,91 +14622,109 @@
         <v>136</v>
       </c>
       <c r="B138">
+        <v>136</v>
+      </c>
+      <c r="C138" s="2">
+        <v>241369</v>
+      </c>
+      <c r="D138" s="2">
+        <v>241669</v>
+      </c>
+      <c r="E138" t="s">
+        <v>37</v>
+      </c>
+      <c r="F138">
+        <v>9</v>
+      </c>
+      <c r="G138">
+        <v>7.5</v>
+      </c>
+      <c r="H138">
+        <v>14</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>37.4</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>1</v>
+      </c>
+      <c r="V138">
+        <v>8</v>
+      </c>
+      <c r="W138">
+        <v>20660</v>
+      </c>
+      <c r="X138">
+        <v>412000</v>
+      </c>
+      <c r="Y138">
+        <v>11.2</v>
+      </c>
+      <c r="Z138">
+        <v>35</v>
+      </c>
+      <c r="AA138">
+        <v>36</v>
+      </c>
+      <c r="AB138">
+        <v>52</v>
+      </c>
+      <c r="AC138">
+        <v>7</v>
+      </c>
+      <c r="AD138">
+        <v>0.16</v>
+      </c>
+      <c r="AE138">
         <v>137</v>
       </c>
-      <c r="C138" s="2">
-        <v>240878</v>
-      </c>
-      <c r="D138" s="2">
-        <v>241551</v>
-      </c>
-      <c r="E138" t="s">
-        <v>35</v>
-      </c>
-      <c r="F138">
-        <v>21</v>
-      </c>
-      <c r="G138">
-        <v>15</v>
-      </c>
-      <c r="H138">
-        <v>20</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>1</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-      <c r="M138">
-        <v>38</v>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>0</v>
-      </c>
-      <c r="S138">
-        <v>0</v>
-      </c>
-      <c r="T138">
-        <v>0</v>
-      </c>
-      <c r="U138">
-        <v>1</v>
-      </c>
-      <c r="V138">
-        <v>4</v>
-      </c>
-      <c r="W138">
-        <v>12200</v>
-      </c>
-      <c r="X138">
-        <v>366000</v>
-      </c>
-      <c r="Y138">
-        <v>13.1</v>
-      </c>
-      <c r="Z138">
-        <v>37.6</v>
-      </c>
-      <c r="AA138">
-        <v>70</v>
-      </c>
-      <c r="AB138">
-        <v>26</v>
+      <c r="AF138">
+        <v>4.8</v>
+      </c>
+      <c r="AG138">
+        <v>100.9</v>
+      </c>
+      <c r="AH138">
+        <v>16.7</v>
       </c>
       <c r="AI138">
         <v>0</v>
       </c>
       <c r="AJ138" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.2">
@@ -14704,22 +14732,25 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C139" s="2">
-        <v>241402</v>
+        <v>240878</v>
       </c>
       <c r="D139" s="2">
-        <v>241416</v>
+        <v>241551</v>
       </c>
       <c r="E139" t="s">
         <v>35</v>
       </c>
       <c r="F139">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G139">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="H139">
+        <v>20</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -14731,10 +14762,10 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -14763,11 +14794,29 @@
       <c r="V139">
         <v>4</v>
       </c>
+      <c r="W139">
+        <v>12200</v>
+      </c>
+      <c r="X139">
+        <v>366000</v>
+      </c>
+      <c r="Y139">
+        <v>13.1</v>
+      </c>
+      <c r="Z139">
+        <v>37.6</v>
+      </c>
+      <c r="AA139">
+        <v>70</v>
+      </c>
+      <c r="AB139">
+        <v>26</v>
+      </c>
       <c r="AI139">
         <v>0</v>
       </c>
       <c r="AJ139" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.2">
@@ -14775,40 +14824,37 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C140" s="2">
-        <v>240949</v>
+        <v>241402</v>
       </c>
       <c r="D140" s="2">
-        <v>240796</v>
+        <v>241416</v>
       </c>
       <c r="E140" t="s">
         <v>35</v>
       </c>
       <c r="F140">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G140">
-        <v>7.8</v>
-      </c>
-      <c r="H140">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M140">
-        <v>38.1</v>
+        <v>37</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -14835,40 +14881,13 @@
         <v>1</v>
       </c>
       <c r="V140">
-        <v>7</v>
-      </c>
-      <c r="W140">
-        <v>8980</v>
-      </c>
-      <c r="X140">
-        <v>456000</v>
-      </c>
-      <c r="Y140">
-        <v>10.1</v>
-      </c>
-      <c r="Z140">
-        <v>31.9</v>
-      </c>
-      <c r="AA140">
-        <v>67</v>
-      </c>
-      <c r="AE140">
-        <v>140</v>
-      </c>
-      <c r="AF140">
-        <v>4.8</v>
-      </c>
-      <c r="AG140">
-        <v>102</v>
-      </c>
-      <c r="AH140">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AI140">
         <v>0</v>
       </c>
       <c r="AJ140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.2">
@@ -14876,40 +14895,40 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C141" s="2">
-        <v>241416</v>
+        <v>240949</v>
       </c>
       <c r="D141" s="2">
-        <v>241036</v>
+        <v>240796</v>
       </c>
       <c r="E141" t="s">
         <v>35</v>
       </c>
       <c r="F141">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G141">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H141">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141">
-        <v>36.6</v>
+        <v>38.1</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -14936,13 +14955,40 @@
         <v>1</v>
       </c>
       <c r="V141">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="W141">
+        <v>8980</v>
+      </c>
+      <c r="X141">
+        <v>456000</v>
+      </c>
+      <c r="Y141">
+        <v>10.1</v>
+      </c>
+      <c r="Z141">
+        <v>31.9</v>
+      </c>
+      <c r="AA141">
+        <v>67</v>
+      </c>
+      <c r="AE141">
+        <v>140</v>
+      </c>
+      <c r="AF141">
+        <v>4.8</v>
+      </c>
+      <c r="AG141">
+        <v>102</v>
+      </c>
+      <c r="AH141">
+        <v>18</v>
       </c>
       <c r="AI141">
         <v>0</v>
       </c>
       <c r="AJ141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.2">
@@ -14950,40 +14996,40 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142" s="2">
-        <v>240470</v>
+        <v>241416</v>
       </c>
       <c r="D142" s="2">
-        <v>241003</v>
+        <v>241036</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F142">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G142">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H142">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142">
         <v>1</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142">
-        <v>37.799999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -15016,7 +15062,7 @@
         <v>0</v>
       </c>
       <c r="AJ142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.2">
@@ -15024,28 +15070,28 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143" s="2">
-        <v>240786</v>
+        <v>240470</v>
       </c>
       <c r="D143" s="2">
-        <v>241092</v>
+        <v>241003</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G143">
-        <v>8.3000000000000007</v>
+        <v>11</v>
       </c>
       <c r="H143">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -15054,10 +15100,10 @@
         <v>1</v>
       </c>
       <c r="L143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143">
-        <v>37.6</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -15086,47 +15132,11 @@
       <c r="V143">
         <v>6</v>
       </c>
-      <c r="W143">
-        <v>22500</v>
-      </c>
-      <c r="X143">
-        <v>676000</v>
-      </c>
-      <c r="Y143">
-        <v>11.2</v>
-      </c>
-      <c r="Z143">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="AA143">
-        <v>76</v>
-      </c>
-      <c r="AB143">
-        <v>19</v>
-      </c>
-      <c r="AC143">
-        <v>20.3</v>
-      </c>
-      <c r="AD143">
-        <v>0.25</v>
-      </c>
-      <c r="AE143">
-        <v>141</v>
-      </c>
-      <c r="AF143">
-        <v>4.37</v>
-      </c>
-      <c r="AG143">
-        <v>102.1</v>
-      </c>
-      <c r="AH143">
-        <v>22.8</v>
-      </c>
       <c r="AI143">
         <v>0</v>
       </c>
       <c r="AJ143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.2">
@@ -15134,49 +15144,52 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C144" s="2">
-        <v>240496</v>
+        <v>240786</v>
       </c>
       <c r="D144" s="2">
-        <v>241056</v>
+        <v>241092</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F144">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G144">
-        <v>14</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H144">
+        <v>8</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
       <c r="M144">
-        <v>36.9</v>
+        <v>37.6</v>
       </c>
       <c r="N144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O144">
         <v>0</v>
       </c>
       <c r="P144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R144">
         <v>0</v>
@@ -15191,46 +15204,46 @@
         <v>1</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W144">
-        <v>11660</v>
+        <v>22500</v>
       </c>
       <c r="X144">
-        <v>255000</v>
+        <v>676000</v>
       </c>
       <c r="Y144">
-        <v>13</v>
+        <v>11.2</v>
       </c>
       <c r="Z144">
-        <v>40.799999999999997</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="AA144">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AB144">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="AC144">
-        <v>7.3</v>
+        <v>20.3</v>
       </c>
       <c r="AD144">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AE144">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AF144">
-        <v>4.6500000000000004</v>
+        <v>4.37</v>
       </c>
       <c r="AG144">
-        <v>102.6</v>
+        <v>102.1</v>
       </c>
       <c r="AH144">
-        <v>19.600000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ144" t="s">
         <v>40</v>
@@ -15241,28 +15254,25 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C145" s="2">
-        <v>238266</v>
+        <v>240496</v>
       </c>
       <c r="D145" s="2">
-        <v>238157</v>
+        <v>241056</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F145">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G145">
-        <v>15.3</v>
-      </c>
-      <c r="H145">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -15274,19 +15284,19 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>36</v>
+        <v>36.9</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145">
         <v>0</v>
       </c>
       <c r="P145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R145">
         <v>0</v>
@@ -15304,46 +15314,46 @@
         <v>2</v>
       </c>
       <c r="W145">
-        <v>12330</v>
+        <v>11660</v>
       </c>
       <c r="X145">
-        <v>340000</v>
+        <v>255000</v>
       </c>
       <c r="Y145">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="Z145">
-        <v>34</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="AA145">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AB145">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AC145">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AD145">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="AE145">
         <v>138</v>
       </c>
       <c r="AF145">
-        <v>4.5</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AG145">
-        <v>98.7</v>
+        <v>102.6</v>
       </c>
       <c r="AH145">
-        <v>16.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AI145">
         <v>1</v>
       </c>
       <c r="AJ145" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.2">
@@ -15351,109 +15361,109 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C146" s="2">
-        <v>238582</v>
+        <v>238266</v>
       </c>
       <c r="D146" s="2">
-        <v>239063</v>
+        <v>238157</v>
       </c>
       <c r="E146" t="s">
         <v>35</v>
       </c>
       <c r="F146">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G146">
+        <v>15.3</v>
+      </c>
+      <c r="H146">
+        <v>23</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>36</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>1</v>
+      </c>
+      <c r="V146">
+        <v>2</v>
+      </c>
+      <c r="W146">
+        <v>12330</v>
+      </c>
+      <c r="X146">
+        <v>340000</v>
+      </c>
+      <c r="Y146">
+        <v>11.8</v>
+      </c>
+      <c r="Z146">
+        <v>34</v>
+      </c>
+      <c r="AA146">
+        <v>62</v>
+      </c>
+      <c r="AB146">
+        <v>29</v>
+      </c>
+      <c r="AC146">
         <v>8</v>
       </c>
-      <c r="H146">
-        <v>8</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>1</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>36.5</v>
-      </c>
-      <c r="N146">
-        <v>1</v>
-      </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146">
-        <v>1</v>
-      </c>
-      <c r="Q146">
-        <v>1</v>
-      </c>
-      <c r="R146">
-        <v>0</v>
-      </c>
-      <c r="S146">
-        <v>0</v>
-      </c>
-      <c r="T146">
-        <v>0</v>
-      </c>
-      <c r="U146">
-        <v>1</v>
-      </c>
-      <c r="V146">
-        <v>6</v>
-      </c>
-      <c r="W146">
-        <v>24380</v>
-      </c>
-      <c r="X146">
-        <v>370000</v>
-      </c>
-      <c r="Y146">
-        <v>11.7</v>
-      </c>
-      <c r="Z146">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="AA146">
-        <v>59</v>
-      </c>
-      <c r="AB146">
-        <v>34</v>
-      </c>
-      <c r="AC146">
-        <v>11.2</v>
-      </c>
       <c r="AD146">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="AE146">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AF146">
-        <v>5.37</v>
+        <v>4.5</v>
       </c>
       <c r="AG146">
-        <v>107.1</v>
+        <v>98.7</v>
       </c>
       <c r="AH146">
-        <v>12.3</v>
+        <v>16.2</v>
       </c>
       <c r="AI146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ146" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.2">
@@ -15461,22 +15471,25 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C147" s="2">
-        <v>278758</v>
+        <v>238582</v>
       </c>
       <c r="D147" s="2">
-        <v>239090</v>
+        <v>239063</v>
       </c>
       <c r="E147" t="s">
         <v>35</v>
       </c>
       <c r="F147">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G147">
-        <v>8.6</v>
+        <v>8</v>
+      </c>
+      <c r="H147">
+        <v>8</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -15491,19 +15504,19 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>36.200000000000003</v>
+        <v>36.5</v>
       </c>
       <c r="N147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147">
         <v>0</v>
       </c>
       <c r="P147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R147">
         <v>0</v>
@@ -15518,13 +15531,49 @@
         <v>1</v>
       </c>
       <c r="V147">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="W147">
+        <v>24380</v>
+      </c>
+      <c r="X147">
+        <v>370000</v>
+      </c>
+      <c r="Y147">
+        <v>11.7</v>
+      </c>
+      <c r="Z147">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AA147">
+        <v>59</v>
+      </c>
+      <c r="AB147">
+        <v>34</v>
+      </c>
+      <c r="AC147">
+        <v>11.2</v>
+      </c>
+      <c r="AD147">
+        <v>0.21</v>
+      </c>
+      <c r="AE147">
+        <v>140</v>
+      </c>
+      <c r="AF147">
+        <v>5.37</v>
+      </c>
+      <c r="AG147">
+        <v>107.1</v>
+      </c>
+      <c r="AH147">
+        <v>12.3</v>
       </c>
       <c r="AI147">
         <v>0</v>
       </c>
       <c r="AJ147" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.2">
@@ -15532,31 +15581,28 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C148" s="2">
-        <v>240093</v>
+        <v>278758</v>
       </c>
       <c r="D148" s="2">
-        <v>240278</v>
+        <v>239090</v>
       </c>
       <c r="E148" t="s">
         <v>35</v>
       </c>
       <c r="F148">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G148">
-        <v>7.5</v>
-      </c>
-      <c r="H148">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148">
         <v>1</v>
@@ -15565,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>37.200000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -15592,49 +15638,13 @@
         <v>1</v>
       </c>
       <c r="V148">
-        <v>8</v>
-      </c>
-      <c r="W148">
-        <v>10370</v>
-      </c>
-      <c r="X148">
-        <v>297000</v>
-      </c>
-      <c r="Y148">
-        <v>13</v>
-      </c>
-      <c r="Z148">
-        <v>39.5</v>
-      </c>
-      <c r="AA148">
-        <v>43</v>
-      </c>
-      <c r="AB148">
-        <v>39</v>
-      </c>
-      <c r="AC148">
-        <v>2</v>
-      </c>
-      <c r="AD148">
-        <v>0.12</v>
-      </c>
-      <c r="AE148">
-        <v>137</v>
-      </c>
-      <c r="AF148">
-        <v>3.76</v>
-      </c>
-      <c r="AG148">
-        <v>97.9</v>
-      </c>
-      <c r="AH148">
-        <v>20.7</v>
+        <v>4</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.2">
@@ -15642,22 +15652,22 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149" s="2">
-        <v>241042</v>
+        <v>240093</v>
       </c>
       <c r="D149" s="2">
-        <v>238696</v>
+        <v>240278</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F149">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G149">
-        <v>12.9</v>
+        <v>7.5</v>
       </c>
       <c r="H149">
         <v>42</v>
@@ -15666,7 +15676,7 @@
         <v>1</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149">
         <v>1</v>
@@ -15675,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>36</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -15702,49 +15712,49 @@
         <v>1</v>
       </c>
       <c r="V149">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W149">
-        <v>7240</v>
+        <v>10370</v>
       </c>
       <c r="X149">
-        <v>343000</v>
+        <v>297000</v>
       </c>
       <c r="Y149">
-        <v>12.1</v>
+        <v>13</v>
       </c>
       <c r="Z149">
-        <v>36.799999999999997</v>
+        <v>39.5</v>
       </c>
       <c r="AA149">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="AB149">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AC149">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="AD149">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
       <c r="AE149">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF149">
-        <v>4.63</v>
+        <v>3.76</v>
       </c>
       <c r="AG149">
-        <v>105.7</v>
+        <v>97.9</v>
       </c>
       <c r="AH149">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="AI149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.2">
@@ -15752,58 +15762,58 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150" s="2">
-        <v>232569</v>
+        <v>241042</v>
       </c>
       <c r="D150" s="2">
-        <v>237563</v>
+        <v>238696</v>
       </c>
       <c r="E150" t="s">
         <v>37</v>
       </c>
       <c r="F150">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="G150">
-        <v>30</v>
+        <v>12.9</v>
       </c>
       <c r="H150">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
       <c r="M150">
-        <v>37.6</v>
+        <v>36</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q150">
         <v>0</v>
       </c>
       <c r="R150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T150">
         <v>0</v>
@@ -15812,13 +15822,49 @@
         <v>1</v>
       </c>
       <c r="V150">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="W150">
+        <v>7240</v>
+      </c>
+      <c r="X150">
+        <v>343000</v>
+      </c>
+      <c r="Y150">
+        <v>12.1</v>
+      </c>
+      <c r="Z150">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AA150">
+        <v>63</v>
+      </c>
+      <c r="AB150">
+        <v>27</v>
+      </c>
+      <c r="AC150">
+        <v>15.5</v>
+      </c>
+      <c r="AD150">
+        <v>0.39</v>
+      </c>
+      <c r="AE150">
+        <v>138</v>
+      </c>
+      <c r="AF150">
+        <v>4.63</v>
+      </c>
+      <c r="AG150">
+        <v>105.7</v>
+      </c>
+      <c r="AH150">
+        <v>19.7</v>
       </c>
       <c r="AI150">
         <v>0</v>
       </c>
       <c r="AJ150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.2">
@@ -15826,31 +15872,31 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C151" s="2">
-        <v>237226</v>
+        <v>232569</v>
       </c>
       <c r="D151" s="2">
-        <v>237840</v>
+        <v>237563</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F151">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G151">
-        <v>7.8</v>
+        <v>30</v>
       </c>
       <c r="H151">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -15859,25 +15905,25 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>36.799999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="N151">
         <v>1</v>
       </c>
       <c r="O151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q151">
         <v>0</v>
       </c>
       <c r="R151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T151">
         <v>0</v>
@@ -15886,25 +15932,7 @@
         <v>1</v>
       </c>
       <c r="V151">
-        <v>3</v>
-      </c>
-      <c r="W151">
-        <v>9850</v>
-      </c>
-      <c r="X151">
-        <v>447000</v>
-      </c>
-      <c r="Y151">
-        <v>10.7</v>
-      </c>
-      <c r="Z151">
-        <v>33</v>
-      </c>
-      <c r="AA151">
-        <v>35</v>
-      </c>
-      <c r="AB151">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="AI151">
         <v>0</v>
@@ -15918,108 +15946,200 @@
         <v>150</v>
       </c>
       <c r="B152">
+        <v>150</v>
+      </c>
+      <c r="C152" s="2">
+        <v>237226</v>
+      </c>
+      <c r="D152" s="2">
+        <v>237840</v>
+      </c>
+      <c r="E152" t="s">
+        <v>35</v>
+      </c>
+      <c r="F152">
+        <v>20</v>
+      </c>
+      <c r="G152">
+        <v>7.8</v>
+      </c>
+      <c r="H152">
+        <v>32</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>1</v>
+      </c>
+      <c r="V152">
+        <v>3</v>
+      </c>
+      <c r="W152">
+        <v>9850</v>
+      </c>
+      <c r="X152">
+        <v>447000</v>
+      </c>
+      <c r="Y152">
+        <v>10.7</v>
+      </c>
+      <c r="Z152">
+        <v>33</v>
+      </c>
+      <c r="AA152">
+        <v>35</v>
+      </c>
+      <c r="AB152">
+        <v>56</v>
+      </c>
+      <c r="AI152">
+        <v>0</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="C152" s="2">
+      <c r="B153">
+        <v>151</v>
+      </c>
+      <c r="C153" s="2">
         <v>237657</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D153" s="2">
         <v>237844</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E153" t="s">
         <v>37</v>
       </c>
-      <c r="F152">
+      <c r="F153">
         <v>6</v>
       </c>
-      <c r="G152">
+      <c r="G153">
         <v>8</v>
       </c>
-      <c r="H152">
+      <c r="H153">
         <v>17</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>1</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
         <v>37.6</v>
       </c>
-      <c r="N152">
-        <v>0</v>
-      </c>
-      <c r="O152">
-        <v>0</v>
-      </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-      <c r="Q152">
-        <v>0</v>
-      </c>
-      <c r="R152">
-        <v>0</v>
-      </c>
-      <c r="S152">
-        <v>0</v>
-      </c>
-      <c r="T152">
-        <v>0</v>
-      </c>
-      <c r="U152">
-        <v>1</v>
-      </c>
-      <c r="V152">
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>1</v>
+      </c>
+      <c r="V153">
         <v>6</v>
       </c>
-      <c r="W152">
+      <c r="W153">
         <v>16020</v>
       </c>
-      <c r="X152">
+      <c r="X153">
         <v>469000</v>
       </c>
-      <c r="Y152">
+      <c r="Y153">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Z152">
+      <c r="Z153">
         <v>28</v>
       </c>
-      <c r="AA152">
+      <c r="AA153">
         <v>62</v>
       </c>
-      <c r="AB152">
+      <c r="AB153">
         <v>32</v>
       </c>
-      <c r="AC152">
+      <c r="AC153">
         <v>3.8</v>
       </c>
-      <c r="AD152">
+      <c r="AD153">
         <v>0.12</v>
       </c>
-      <c r="AE152">
+      <c r="AE153">
         <v>135</v>
       </c>
-      <c r="AF152">
+      <c r="AF153">
         <v>3.33</v>
       </c>
-      <c r="AG152">
+      <c r="AG153">
         <v>102</v>
       </c>
-      <c r="AH152">
+      <c r="AH153">
         <v>18</v>
       </c>
-      <c r="AI152">
-        <v>1</v>
-      </c>
-      <c r="AJ152" t="s">
+      <c r="AI153">
+        <v>1</v>
+      </c>
+      <c r="AJ153" t="s">
         <v>36</v>
       </c>
     </row>
